--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="    J U L I O     2 0 2 2     " sheetId="13" r:id="rId13"/>
     <sheet name="  REMISIONES   JULIO  2022    " sheetId="14" r:id="rId14"/>
     <sheet name="Hoja3" sheetId="15" r:id="rId15"/>
+    <sheet name="Hoja1" sheetId="16" r:id="rId16"/>
+    <sheet name="Hoja2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -443,8 +445,66 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="422">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1720,6 +1780,9 @@
   </si>
   <si>
     <t>comisiones banco</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    AGOSTO       2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -3050,7 +3113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="340">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3602,6 +3665,39 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3683,42 +3779,13 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6728,6 +6795,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="10115549"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="9620250"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="10115549"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="9601200"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="8734422"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="10427450"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="10448925"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7020,23 +7513,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7046,21 +7539,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7075,14 +7568,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -7092,11 +7585,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8597,11 +9090,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -8627,8 +9120,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8843,29 +9336,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8876,22 +9369,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8922,11 +9415,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8943,22 +9436,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -9102,12 +9595,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -9123,6 +9610,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10575,23 +11068,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10601,21 +11094,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10630,14 +11123,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10647,11 +11140,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12228,11 +12721,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12264,8 +12757,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12511,29 +13004,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -12544,22 +13037,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12590,11 +13083,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12611,22 +13104,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12773,6 +13266,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12782,18 +13287,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14163,8 +14656,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14187,23 +14680,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14213,21 +14706,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14242,14 +14735,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14259,11 +14752,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15755,11 +16248,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -15789,8 +16282,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16005,29 +16498,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -16038,22 +16531,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16084,11 +16577,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16105,22 +16598,22 @@
       <c r="C59" s="133">
         <v>44773</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="316" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -16264,6 +16757,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16273,18 +16778,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17534,6 +18027,2055 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="244" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="302"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="307" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="307"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="R3" s="312" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>273736.42</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44773</v>
+      </c>
+      <c r="E4" s="308" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="311"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="319" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44774</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>44774</v>
+      </c>
+      <c r="F5" s="29">
+        <v>62335</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="30">
+        <v>44774</v>
+      </c>
+      <c r="I5" s="31">
+        <v>141</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <f>25000+34594</f>
+        <v>59594</v>
+      </c>
+      <c r="N5" s="33">
+        <v>2600</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>62335</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" ref="Q5:Q39" si="0">P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25">
+        <v>44775</v>
+      </c>
+      <c r="C6" s="26">
+        <v>4700</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="28">
+        <v>44775</v>
+      </c>
+      <c r="F6" s="29">
+        <v>62729</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="30">
+        <v>44775</v>
+      </c>
+      <c r="I6" s="31">
+        <v>35</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="32">
+        <f>10000+57853</f>
+        <v>67853</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="34">
+        <f t="shared" ref="P6:P40" si="1">N6+M6+L6+I6+C6</f>
+        <v>72588</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="293">
+        <v>9859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
+        <v>44776</v>
+      </c>
+      <c r="C7" s="26">
+        <v>13</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="28">
+        <v>44776</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41829</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="30">
+        <v>44776</v>
+      </c>
+      <c r="I7" s="31">
+        <v>140</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="32">
+        <f>10000+47248</f>
+        <v>57248</v>
+      </c>
+      <c r="N7" s="33">
+        <v>1200</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="34">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>58601</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="184">
+        <v>16772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>44777</v>
+      </c>
+      <c r="C8" s="341">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="28">
+        <v>44777</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="30">
+        <v>44777</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" ref="Q8:Q36" si="2">P8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25">
+        <v>44778</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="28">
+        <v>44778</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="30">
+        <v>44778</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
+        <v>44779</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="28">
+        <v>44779</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="30">
+        <v>44779</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
+        <v>44780</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="28">
+        <v>44780</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="30">
+        <v>44780</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25">
+        <v>44781</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="28">
+        <v>44781</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="30">
+        <v>44781</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25">
+        <v>44782</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="28">
+        <v>44782</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="30">
+        <v>44782</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25">
+        <v>44783</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="28">
+        <v>44783</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="30">
+        <v>44783</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25">
+        <v>44784</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="28">
+        <v>44784</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="30">
+        <v>44784</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25">
+        <v>44785</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="28">
+        <v>44785</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="30">
+        <v>44785</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25">
+        <v>44786</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="28">
+        <v>44786</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="30">
+        <v>44786</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25">
+        <v>44787</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="28">
+        <v>44787</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="30">
+        <v>44787</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25">
+        <v>44788</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="28">
+        <v>44788</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="30">
+        <v>44788</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25">
+        <v>44789</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="28">
+        <v>44789</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="30">
+        <v>44789</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25">
+        <v>44790</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28">
+        <v>44790</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="30">
+        <v>44790</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25">
+        <v>44791</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="28">
+        <v>44791</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="30">
+        <v>44791</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25">
+        <v>44792</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="28">
+        <v>44792</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="30">
+        <v>44792</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25">
+        <v>44793</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="28">
+        <v>44793</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="30">
+        <v>44793</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25">
+        <v>44794</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="28">
+        <v>44794</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="30">
+        <v>44794</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="290"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25">
+        <v>44795</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="28">
+        <v>44795</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="30">
+        <v>44795</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25">
+        <v>44796</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="28">
+        <v>44796</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="30">
+        <v>44796</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25">
+        <v>44797</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28">
+        <v>44797</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="30">
+        <v>44797</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25">
+        <v>44798</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="28">
+        <v>44798</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="30">
+        <v>44798</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25">
+        <v>44799</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="28">
+        <v>44799</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="30">
+        <v>44799</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25">
+        <v>44800</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="83"/>
+      <c r="E31" s="28">
+        <v>44800</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="30">
+        <v>44800</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25">
+        <v>44801</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="28">
+        <v>44801</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="30">
+        <v>44801</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25">
+        <v>44802</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
+      <c r="D33" s="79"/>
+      <c r="E33" s="28">
+        <v>44802</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="30">
+        <v>44802</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25">
+        <v>44803</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="28">
+        <v>44803</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="30">
+        <v>44803</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25">
+        <v>44804</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0</v>
+      </c>
+      <c r="D35" s="83"/>
+      <c r="E35" s="28">
+        <v>44804</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="30">
+        <v>44804</v>
+      </c>
+      <c r="I35" s="31"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25">
+        <v>44805</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="28">
+        <v>44805</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="30">
+        <v>44805</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="299"/>
+      <c r="K36" s="340"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25">
+        <v>44806</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="28">
+        <v>44806</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="30">
+        <v>44806</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="300"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="P37" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25">
+        <v>44807</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="28">
+        <v>44807</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="30">
+        <v>44807</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25">
+        <v>44808</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="28">
+        <v>44808</v>
+      </c>
+      <c r="F39" s="85"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="30">
+        <v>44808</v>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="276"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="321">
+        <f>SUM(M5:M39)</f>
+        <v>184695</v>
+      </c>
+      <c r="N40" s="323">
+        <f>SUM(N5:N39)</f>
+        <v>3800</v>
+      </c>
+      <c r="P40" s="34">
+        <f t="shared" si="1"/>
+        <v>188495</v>
+      </c>
+      <c r="Q40" s="294">
+        <f>SUM(Q5:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="295">
+        <f>SUM(R5:R39)</f>
+        <v>26631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="259"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="260"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="245"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="245"/>
+      <c r="G42" s="261"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="24"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="262"/>
+      <c r="F43" s="245"/>
+      <c r="G43" s="261"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="97"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="261"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="97"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="245"/>
+      <c r="G45" s="261"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24"/>
+      <c r="B46" s="263"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="291"/>
+      <c r="F46" s="245"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="292"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="291"/>
+      <c r="F47" s="245"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="291"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="97"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="291"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="26">
+        <v>0</v>
+      </c>
+      <c r="D50" s="99"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="90"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="33"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="106">
+        <f>SUM(C5:C50)</f>
+        <v>4713</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="109">
+        <f>SUM(F5:F50)</f>
+        <v>166893</v>
+      </c>
+      <c r="G51" s="107"/>
+      <c r="H51" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="111">
+        <f>SUM(I5:I50)</f>
+        <v>316</v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="114">
+        <f>SUM(L5:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="325" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="326"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="327">
+        <f>I51+L51</f>
+        <v>316</v>
+      </c>
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
+        <f>N40+M40</f>
+        <v>188495</v>
+      </c>
+      <c r="N53" s="330"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="331" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="331"/>
+      <c r="F54" s="120">
+        <f>F51-K53-C51</f>
+        <v>161864</v>
+      </c>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="332"/>
+      <c r="F55" s="115">
+        <v>0</v>
+      </c>
+      <c r="I55" s="333" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
+        <f>F57+F58+F59</f>
+        <v>161864</v>
+      </c>
+      <c r="L55" s="336"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="123"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="124">
+        <v>0</v>
+      </c>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="128"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="115">
+        <f>SUM(F54:F56)</f>
+        <v>161864</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="130"/>
+      <c r="K57" s="337">
+        <f>-C4</f>
+        <v>-273736.42</v>
+      </c>
+      <c r="L57" s="338"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="133"/>
+      <c r="D59" s="314" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="315"/>
+      <c r="F59" s="134">
+        <v>0</v>
+      </c>
+      <c r="I59" s="316" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
+        <f>K55+K57</f>
+        <v>-111872.41999999998</v>
+      </c>
+      <c r="L59" s="318"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="138"/>
+      <c r="J60" s="139"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="141"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="34"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="117"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="142"/>
+      <c r="C63" s="146"/>
+      <c r="E63" s="34"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="117"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="142"/>
+      <c r="C64" s="146"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="147"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="142"/>
+      <c r="C65" s="146"/>
+      <c r="E65" s="34"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="142"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="150"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="149"/>
+      <c r="E67" s="151"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="149"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="149"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="149"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="149"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="149"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="149"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="149"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="149"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="149"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="149"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="34"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="149"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="149"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19354,23 +21896,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19380,21 +21922,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19409,14 +21951,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -19426,11 +21968,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -20918,7 +23460,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -20944,8 +23486,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -21160,29 +23702,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -21193,22 +23735,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -21239,11 +23781,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -21260,22 +23802,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -21419,18 +23961,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21440,6 +23970,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22744,23 +25286,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22770,21 +25312,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22799,14 +25341,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -22816,11 +25358,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -24318,11 +26860,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -24348,8 +26890,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -24492,29 +27034,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="314" t="s">
+      <c r="H49" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="315"/>
+      <c r="I49" s="326"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="316">
+      <c r="K49" s="327">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="317"/>
-      <c r="M49" s="318">
+      <c r="L49" s="328"/>
+      <c r="M49" s="329">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="319"/>
+      <c r="N49" s="330"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="320" t="s">
+      <c r="D50" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="320"/>
+      <c r="E50" s="331"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -24525,22 +27067,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="321" t="s">
+      <c r="D51" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="321"/>
+      <c r="E51" s="332"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="322" t="s">
+      <c r="I51" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="323"/>
-      <c r="K51" s="324">
+      <c r="J51" s="334"/>
+      <c r="K51" s="335">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="325"/>
+      <c r="L51" s="336"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -24571,11 +27113,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="326">
+      <c r="K53" s="337">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="327"/>
+      <c r="L53" s="338"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -24592,22 +27134,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="303" t="s">
+      <c r="D55" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="304"/>
+      <c r="E55" s="315"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="305" t="s">
+      <c r="I55" s="316" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="306"/>
-      <c r="K55" s="307">
+      <c r="J55" s="317"/>
+      <c r="K55" s="318">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="307"/>
+      <c r="L55" s="318"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -24754,6 +27296,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24763,18 +27317,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26249,23 +28791,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26275,21 +28817,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26304,14 +28846,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -26321,11 +28863,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -27969,11 +30511,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="310">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -28005,8 +30547,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -28241,29 +30783,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -28274,22 +30816,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -28320,11 +30862,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -28341,22 +30883,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -28503,6 +31045,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28512,18 +31066,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30027,23 +32569,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="328"/>
-      <c r="C1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="329"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30053,21 +32595,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="332" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="333"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="334" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="301" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -30082,14 +32624,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="335" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="336"/>
-      <c r="H4" s="337" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="338"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -30099,11 +32641,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="308" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="309"/>
-      <c r="R4" s="302"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -31667,11 +34209,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="310">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="312">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -31697,8 +34239,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="311"/>
-      <c r="N41" s="313"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -31913,29 +34455,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="314" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="315"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="316">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="317"/>
-      <c r="M53" s="318">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="319"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="320" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="320"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -31946,22 +34488,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="321" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="321"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="322" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="323"/>
-      <c r="K55" s="324">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="325"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -31992,11 +34534,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="326">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="327"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -32013,22 +34555,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="303" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="304"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="305" t="s">
+      <c r="I59" s="316" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="306"/>
-      <c r="K59" s="307">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="307"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -32175,18 +34717,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32196,6 +34726,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="    J U N I O     2 0 2 2      " sheetId="11" r:id="rId11"/>
     <sheet name=" REMISIONES   JUNIO   2022   " sheetId="12" r:id="rId12"/>
     <sheet name="    J U L I O     2 0 2 2     " sheetId="13" r:id="rId13"/>
-    <sheet name="  REMISIONES   JULIO  2022    " sheetId="14" r:id="rId14"/>
-    <sheet name="Hoja3" sheetId="15" r:id="rId15"/>
-    <sheet name="Hoja1" sheetId="16" r:id="rId16"/>
+    <sheet name="COMPRAS   JULIO   2022" sheetId="14" r:id="rId14"/>
+    <sheet name="   A G O S T O    2 0 2 2    " sheetId="15" r:id="rId15"/>
+    <sheet name="COMPRAS   AGOSTO 2022" sheetId="16" r:id="rId16"/>
     <sheet name="Hoja2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="428">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1783,6 +1783,24 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    AGOSTO       2 0 2 2</t>
+  </si>
+  <si>
+    <t>PAPA-BOLA RES-RETAZO-ROASBEEF</t>
+  </si>
+  <si>
+    <t>NOMINA # 32</t>
+  </si>
+  <si>
+    <t>LONGANIZA-COMPRAS CENTRAL</t>
+  </si>
+  <si>
+    <t>ARABE-COMPAS CENTRAL</t>
+  </si>
+  <si>
+    <t>NOMINA # 33</t>
+  </si>
+  <si>
+    <t>LONGAZNIZA</t>
   </si>
 </sst>
 </file>
@@ -3113,7 +3131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3665,6 +3683,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3782,10 +3804,8 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3795,8 +3815,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FFFF99FF"/>
@@ -7513,23 +7533,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7539,21 +7559,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7568,14 +7588,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -7585,11 +7605,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9090,11 +9110,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="321">
+      <c r="M40" s="323">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="323">
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -9120,8 +9140,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9336,29 +9356,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="325" t="s">
+      <c r="H53" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="326"/>
+      <c r="I53" s="328"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="327">
+      <c r="K53" s="329">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="329">
+      <c r="L53" s="330"/>
+      <c r="M53" s="331">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="330"/>
+      <c r="N53" s="332"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="333"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -9369,22 +9389,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="332" t="s">
+      <c r="D55" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="332"/>
+      <c r="E55" s="334"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335">
+      <c r="J55" s="336"/>
+      <c r="K55" s="337">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="338"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9415,11 +9435,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="337">
+      <c r="K57" s="339">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="338"/>
+      <c r="L57" s="340"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9436,22 +9456,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="316" t="s">
+      <c r="I59" s="318" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="317"/>
-      <c r="K59" s="318">
+      <c r="J59" s="319"/>
+      <c r="K59" s="320">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="318"/>
+      <c r="L59" s="320"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -11068,23 +11088,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11094,21 +11114,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11123,14 +11143,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11140,11 +11160,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12721,11 +12741,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="321">
+      <c r="M40" s="323">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="323">
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12757,8 +12777,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13004,29 +13024,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="325" t="s">
+      <c r="H53" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="326"/>
+      <c r="I53" s="328"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="327">
+      <c r="K53" s="329">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="329">
+      <c r="L53" s="330"/>
+      <c r="M53" s="331">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="330"/>
+      <c r="N53" s="332"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="333"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -13037,22 +13057,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="332" t="s">
+      <c r="D55" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="332"/>
+      <c r="E55" s="334"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335">
+      <c r="J55" s="336"/>
+      <c r="K55" s="337">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="338"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13083,11 +13103,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="337">
+      <c r="K57" s="339">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="338"/>
+      <c r="L57" s="340"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13104,22 +13124,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="316" t="s">
+      <c r="I59" s="318" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="317"/>
-      <c r="K59" s="318">
+      <c r="J59" s="319"/>
+      <c r="K59" s="320">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="318"/>
+      <c r="L59" s="320"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -14657,7 +14677,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A1:XFD1048576"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14680,23 +14700,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14706,21 +14726,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14735,14 +14755,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14752,11 +14772,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16248,11 +16268,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="321">
+      <c r="M40" s="323">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="323">
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -16282,8 +16302,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16498,29 +16518,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="325" t="s">
+      <c r="H53" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="326"/>
+      <c r="I53" s="328"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="327">
+      <c r="K53" s="329">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="329">
+      <c r="L53" s="330"/>
+      <c r="M53" s="331">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="330"/>
+      <c r="N53" s="332"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="333"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -16531,22 +16551,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="332" t="s">
+      <c r="D55" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="332"/>
+      <c r="E55" s="334"/>
       <c r="F55" s="115">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335">
+      <c r="J55" s="336"/>
+      <c r="K55" s="337">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="338"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16577,11 +16597,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="337">
+      <c r="K57" s="339">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="338"/>
+      <c r="L57" s="340"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16598,22 +16618,22 @@
       <c r="C59" s="133">
         <v>44773</v>
       </c>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="134">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="316" t="s">
+      <c r="I59" s="318" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="317"/>
-      <c r="K59" s="318">
+      <c r="J59" s="319"/>
+      <c r="K59" s="320">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="318"/>
+      <c r="L59" s="320"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -16793,8 +16813,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18028,10 +18048,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18054,23 +18077,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18080,21 +18103,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18109,14 +18132,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18126,11 +18149,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -18276,39 +18299,45 @@
       <c r="B8" s="25">
         <v>44777</v>
       </c>
-      <c r="C8" s="341">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41"/>
+      <c r="C8" s="302">
+        <v>5</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="28">
         <v>44777</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <v>82001</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="30">
         <v>44777</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>101</v>
+      </c>
       <c r="J8" s="44"/>
       <c r="K8" s="45"/>
       <c r="L8" s="40"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <f>15000+70195</f>
+        <v>85195</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86701</v>
       </c>
       <c r="Q8" s="13">
-        <f t="shared" ref="Q8:Q36" si="2">P8-F8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="184">
+        <v>4700</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18317,23 +18346,30 @@
         <v>44778</v>
       </c>
       <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41"/>
+        <v>8450</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>422</v>
+      </c>
       <c r="E9" s="28">
         <v>44778</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29">
+        <v>123903</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="30">
         <v>44778</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>106</v>
+      </c>
       <c r="J9" s="38"/>
       <c r="K9" s="46"/>
       <c r="L9" s="40"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <f>40000+60000+22800+374</f>
+        <v>123174</v>
       </c>
       <c r="N9" s="33">
         <v>0</v>
@@ -18341,14 +18377,13 @@
       <c r="O9" s="2"/>
       <c r="P9" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>131730</v>
       </c>
       <c r="Q9" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" s="184">
+        <v>7827</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18357,34 +18392,47 @@
         <v>44779</v>
       </c>
       <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="28">
         <v>44779</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29">
+        <v>101841</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="30">
         <v>44779</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="I10" s="31">
+        <v>146</v>
+      </c>
+      <c r="J10" s="38">
+        <v>44779</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="L10" s="48">
+        <v>10000</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>15000+55000+16368</f>
+        <v>86368</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>5317</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>N10+M10+L10+I10+C10</f>
+        <v>101841</v>
       </c>
       <c r="Q10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Q10:Q36" si="2">P10-F10</f>
         <v>0</v>
       </c>
       <c r="R10" s="9">
@@ -18406,32 +18454,36 @@
       <c r="E11" s="28">
         <v>44780</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>120014</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="30">
         <v>44780</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>100</v>
+      </c>
       <c r="J11" s="44"/>
       <c r="K11" s="49"/>
       <c r="L11" s="40"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <f>85000+30000+19176</f>
+        <v>134176</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>1954</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="34">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>136230</v>
       </c>
       <c r="Q11" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R11" s="184">
+        <v>16216</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18446,25 +18498,30 @@
       <c r="E12" s="28">
         <v>44781</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <v>66101</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="30">
         <v>44781</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>35</v>
+      </c>
       <c r="J12" s="38"/>
       <c r="K12" s="50"/>
       <c r="L12" s="40"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>11000+54697</f>
+        <v>65697</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66101</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="2"/>
@@ -18480,31 +18537,38 @@
         <v>44782</v>
       </c>
       <c r="C13" s="26">
-        <v>0</v>
-      </c>
-      <c r="D13" s="41"/>
+        <v>17820</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>424</v>
+      </c>
       <c r="E13" s="28">
         <v>44782</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <v>83219</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="30">
         <v>44782</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>95</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>49505+15000</f>
+        <v>64505</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83219</v>
       </c>
       <c r="Q13" s="13">
         <f t="shared" si="2"/>
@@ -18526,25 +18590,30 @@
       <c r="E14" s="28">
         <v>44783</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29">
+        <v>71645</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="30">
         <v>44783</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>264</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="K14" s="45"/>
       <c r="L14" s="40"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <f>10000+60626</f>
+        <v>70626</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71645</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="2"/>
@@ -18566,24 +18635,29 @@
       <c r="E15" s="28">
         <v>44784</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29">
+        <v>75242</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="30">
         <v>44784</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>56</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="45"/>
       <c r="L15" s="40"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <f>20000+54661</f>
+        <v>74661</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="P15" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75242</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="2"/>
@@ -18599,30 +18673,37 @@
         <v>44785</v>
       </c>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36"/>
+        <v>12186</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>425</v>
+      </c>
       <c r="E16" s="28">
         <v>44785</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <v>100267</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="30">
         <v>44785</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>107</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>35000+52152</f>
+        <v>87152</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100267</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="2"/>
@@ -18644,24 +18725,35 @@
       <c r="E17" s="28">
         <v>44786</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <v>86993</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="30">
         <v>44786</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="31">
+        <v>420</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44786</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="L17" s="48">
+        <v>10000</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>15000+54861</f>
+        <v>69861</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86993</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="2"/>
@@ -18683,24 +18775,29 @@
       <c r="E18" s="28">
         <v>44787</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <v>160010</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="30">
         <v>44787</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>45</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="53"/>
       <c r="L18" s="40"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>13410+85000+60000</f>
+        <v>158410</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>160010</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="2"/>
@@ -18722,29 +18819,34 @@
       <c r="E19" s="28">
         <v>44788</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>62286</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="30">
         <v>44788</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>67</v>
+      </c>
       <c r="J19" s="38"/>
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>27000+32120</f>
+        <v>59120</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62287</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="9">
         <v>0</v>
@@ -18756,30 +18858,37 @@
         <v>44789</v>
       </c>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="36"/>
+        <v>3040</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>427</v>
+      </c>
       <c r="E20" s="28">
         <v>44789</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <v>89018</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="30">
         <v>44789</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>185</v>
+      </c>
       <c r="J20" s="38"/>
       <c r="K20" s="56"/>
       <c r="L20" s="48"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>50000+32793</f>
+        <v>82793</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89018</v>
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="2"/>
@@ -18795,30 +18904,37 @@
         <v>44790</v>
       </c>
       <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="36"/>
+        <v>11</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="28">
         <v>44790</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>69367</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="30">
         <v>44790</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>130</v>
+      </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57"/>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>48509+20000</f>
+        <v>68509</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="P21" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69367</v>
       </c>
       <c r="Q21" s="13">
         <f t="shared" si="2"/>
@@ -18840,24 +18956,29 @@
       <c r="E22" s="28">
         <v>44791</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <v>78185</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="30">
         <v>44791</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>144</v>
+      </c>
       <c r="J22" s="38"/>
       <c r="K22" s="45"/>
       <c r="L22" s="58"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>56888+20000</f>
+        <v>76888</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="P22" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78185</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="2"/>
@@ -18873,34 +18994,41 @@
         <v>44792</v>
       </c>
       <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36"/>
+        <v>23190</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E23" s="28">
         <v>44792</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>90916</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="30">
         <v>44792</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>230</v>
+      </c>
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="32">
-        <v>0</v>
+      <c r="M23" s="342">
+        <f>40000</f>
+        <v>40000</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>1648</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="13">
+        <v>65068</v>
+      </c>
+      <c r="Q23" s="343">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-25848</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
@@ -19392,7 +19520,7 @@
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="299"/>
-      <c r="K36" s="340"/>
+      <c r="K36" s="301"/>
       <c r="L36" s="80"/>
       <c r="M36" s="32">
         <v>0</v>
@@ -19528,25 +19656,25 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="321">
+      <c r="M40" s="323">
         <f>SUM(M5:M39)</f>
-        <v>184695</v>
-      </c>
-      <c r="N40" s="323">
+        <v>1531830</v>
+      </c>
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
-        <v>3800</v>
+        <v>33626</v>
       </c>
       <c r="P40" s="34">
         <f t="shared" si="1"/>
-        <v>188495</v>
+        <v>1565456</v>
       </c>
       <c r="Q40" s="294">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>-25847</v>
       </c>
       <c r="R40" s="295">
         <f>SUM(R5:R39)</f>
-        <v>26631</v>
+        <v>55374</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19562,8 +19690,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19736,7 +19864,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>4713</v>
+        <v>69425</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -19744,7 +19872,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>166893</v>
+        <v>1627901</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -19752,7 +19880,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>316</v>
+        <v>2547</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -19760,7 +19888,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -19778,32 +19906,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="325" t="s">
+      <c r="H53" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="326"/>
+      <c r="I53" s="328"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="327">
+      <c r="K53" s="329">
         <f>I51+L51</f>
-        <v>316</v>
-      </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="329">
+        <v>22547</v>
+      </c>
+      <c r="L53" s="330"/>
+      <c r="M53" s="331">
         <f>N40+M40</f>
-        <v>188495</v>
-      </c>
-      <c r="N53" s="330"/>
+        <v>1565456</v>
+      </c>
+      <c r="N53" s="332"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="333"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>161864</v>
+        <v>1535929</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -19811,22 +19939,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="332" t="s">
+      <c r="D55" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="332"/>
+      <c r="E55" s="334"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335">
+      <c r="J55" s="336"/>
+      <c r="K55" s="337">
         <f>F57+F58+F59</f>
-        <v>161864</v>
-      </c>
-      <c r="L55" s="336"/>
+        <v>1535929</v>
+      </c>
+      <c r="L55" s="338"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19850,18 +19978,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>161864</v>
+        <v>1535929</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="337">
+      <c r="K57" s="339">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="338"/>
+      <c r="L57" s="340"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19876,22 +20004,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="316" t="s">
+      <c r="I59" s="318" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="317"/>
-      <c r="K59" s="318">
+      <c r="J59" s="319"/>
+      <c r="K59" s="320">
         <f>K55+K57</f>
-        <v>-111872.41999999998</v>
-      </c>
-      <c r="L59" s="318"/>
+        <v>1262192.58</v>
+      </c>
+      <c r="L59" s="320"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -20042,35 +20170,1096 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="M40:M41"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="N40:N41"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="233" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="117"/>
+    <col min="10" max="11" width="17.140625" style="117" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="264"/>
+      <c r="B3" s="265"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="158">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="132"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="267"/>
+      <c r="B4" s="268"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="196">
+        <f>C4-E4+F3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="266"/>
+    </row>
+    <row r="5" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="267"/>
+      <c r="B5" s="268"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="288"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="196">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="132"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="267"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="162"/>
+      <c r="J6" s="132"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="267"/>
+      <c r="B7" s="268"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="267"/>
+      <c r="B8" s="268"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="269"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="132"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="267"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="267"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="267"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="277">
+        <f>SUM(J3:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="267"/>
+      <c r="B12" s="268"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="162"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="267"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="267"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="267"/>
+      <c r="B15" s="268"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="267"/>
+      <c r="B16" s="268"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="267"/>
+      <c r="B17" s="268"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="267"/>
+      <c r="B18" s="268"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="267"/>
+      <c r="B19" s="268"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="269"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="267"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="269"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="267"/>
+      <c r="B21" s="268"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="269"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="267"/>
+      <c r="B22" s="268"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="269"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="267"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="269"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="267"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="269"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="162"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="267"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="269"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="267"/>
+      <c r="B26" s="268"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="269"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="267"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="267"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="269"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="267"/>
+      <c r="B29" s="268"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="267"/>
+      <c r="B30" s="268"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="267"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="267"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="162"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="267"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="267"/>
+      <c r="B34" s="268"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="267"/>
+      <c r="B35" s="268"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="267"/>
+      <c r="B36" s="268"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="269"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="267"/>
+      <c r="B37" s="268"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="267"/>
+      <c r="B38" s="268"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="267"/>
+      <c r="B39" s="268"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="267"/>
+      <c r="B40" s="268"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="269"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="267"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="269"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="269"/>
+      <c r="B42" s="270"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="269"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="163"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="164"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="164"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="167"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="196">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="196">
+        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="164"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="164"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="164"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="164"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="164"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="172"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="174"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="196">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="212"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="250">
+        <f>SUM(C3:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="189"/>
+      <c r="E79" s="178">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="179">
+        <f>F78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="170"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="170"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="234"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="234"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="234"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="234"/>
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="234"/>
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="234"/>
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="234"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="234"/>
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="234"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="234"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="234"/>
+      <c r="F92" s="117"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="234"/>
+      <c r="F93" s="117"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="234"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="234"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="234"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="234"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="234"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="234"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="234"/>
+      <c r="E100" s="117"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="234"/>
+      <c r="E101" s="117"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="234"/>
+      <c r="E102" s="117"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="234"/>
+      <c r="E103" s="117"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="234"/>
+      <c r="E104" s="117"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="234"/>
+      <c r="E105" s="117"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="234"/>
+      <c r="E106" s="117"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="234"/>
+      <c r="E107" s="117"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="234"/>
+      <c r="E108" s="117"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="234"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="234"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="234"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="234"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="234"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="234"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="180"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -21896,23 +23085,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21922,21 +23111,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21951,14 +23140,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21968,11 +23157,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23456,11 +24645,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="339">
+      <c r="M40" s="341">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="323">
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -23486,8 +24675,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23702,29 +24891,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="325" t="s">
+      <c r="H53" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="326"/>
+      <c r="I53" s="328"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="327">
+      <c r="K53" s="329">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="329">
+      <c r="L53" s="330"/>
+      <c r="M53" s="331">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="330"/>
+      <c r="N53" s="332"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="333"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -23735,22 +24924,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="332" t="s">
+      <c r="D55" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="332"/>
+      <c r="E55" s="334"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335">
+      <c r="J55" s="336"/>
+      <c r="K55" s="337">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="338"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -23781,11 +24970,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="337">
+      <c r="K57" s="339">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="338"/>
+      <c r="L57" s="340"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -23802,22 +24991,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="316" t="s">
+      <c r="I59" s="318" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="317"/>
-      <c r="K59" s="318">
+      <c r="J59" s="319"/>
+      <c r="K59" s="320">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="318"/>
+      <c r="L59" s="320"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -25286,23 +26475,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -25312,21 +26501,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -25341,14 +26530,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -25358,11 +26547,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -26860,11 +28049,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="321">
+      <c r="M40" s="323">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="323">
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -26890,8 +28079,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -27034,29 +28223,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="325" t="s">
+      <c r="H49" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="326"/>
+      <c r="I49" s="328"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="327">
+      <c r="K49" s="329">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="328"/>
-      <c r="M49" s="329">
+      <c r="L49" s="330"/>
+      <c r="M49" s="331">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="330"/>
+      <c r="N49" s="332"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="331" t="s">
+      <c r="D50" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="331"/>
+      <c r="E50" s="333"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -27067,22 +28256,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="332" t="s">
+      <c r="D51" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="332"/>
+      <c r="E51" s="334"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="333" t="s">
+      <c r="I51" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="334"/>
-      <c r="K51" s="335">
+      <c r="J51" s="336"/>
+      <c r="K51" s="337">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="336"/>
+      <c r="L51" s="338"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -27113,11 +28302,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="337">
+      <c r="K53" s="339">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="338"/>
+      <c r="L53" s="340"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -27134,22 +28323,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="315"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="316" t="s">
+      <c r="I55" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="317"/>
-      <c r="K55" s="318">
+      <c r="J55" s="319"/>
+      <c r="K55" s="320">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="320"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -28791,23 +29980,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28817,21 +30006,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28846,14 +30035,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -28863,11 +30052,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -30511,11 +31700,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="321">
+      <c r="M40" s="323">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="323">
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -30547,8 +31736,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -30783,29 +31972,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="325" t="s">
+      <c r="H53" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="326"/>
+      <c r="I53" s="328"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="327">
+      <c r="K53" s="329">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="329">
+      <c r="L53" s="330"/>
+      <c r="M53" s="331">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="330"/>
+      <c r="N53" s="332"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="333"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -30816,22 +32005,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="332" t="s">
+      <c r="D55" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="332"/>
+      <c r="E55" s="334"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335">
+      <c r="J55" s="336"/>
+      <c r="K55" s="337">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="338"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -30862,11 +32051,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="337">
+      <c r="K57" s="339">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="338"/>
+      <c r="L57" s="340"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -30883,22 +32072,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="316" t="s">
+      <c r="I59" s="318" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="317"/>
-      <c r="K59" s="318">
+      <c r="J59" s="319"/>
+      <c r="K59" s="320">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="318"/>
+      <c r="L59" s="320"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -32569,23 +33758,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="301"/>
-      <c r="C1" s="303" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="305" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="302"/>
+      <c r="B2" s="304"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -32595,21 +33784,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="306"/>
+      <c r="B3" s="307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="308"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="307" t="s">
+      <c r="H3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="309"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="314" t="s">
         <v>38</v>
       </c>
     </row>
@@ -32624,14 +33813,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="308" t="s">
+      <c r="E4" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="309"/>
-      <c r="H4" s="310" t="s">
+      <c r="F4" s="311"/>
+      <c r="H4" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="311"/>
+      <c r="I4" s="313"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -32641,11 +33830,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="319" t="s">
+      <c r="P4" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="320"/>
-      <c r="R4" s="313"/>
+      <c r="Q4" s="322"/>
+      <c r="R4" s="315"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -34209,11 +35398,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="321">
+      <c r="M40" s="323">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="323">
+      <c r="N40" s="325">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -34239,8 +35428,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="322"/>
-      <c r="N41" s="324"/>
+      <c r="M41" s="324"/>
+      <c r="N41" s="326"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -34455,29 +35644,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="325" t="s">
+      <c r="H53" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="326"/>
+      <c r="I53" s="328"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="327">
+      <c r="K53" s="329">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="328"/>
-      <c r="M53" s="329">
+      <c r="L53" s="330"/>
+      <c r="M53" s="331">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="330"/>
+      <c r="N53" s="332"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="331" t="s">
+      <c r="D54" s="333" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="331"/>
+      <c r="E54" s="333"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -34488,22 +35677,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="332" t="s">
+      <c r="D55" s="334" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="332"/>
+      <c r="E55" s="334"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="335" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="334"/>
-      <c r="K55" s="335">
+      <c r="J55" s="336"/>
+      <c r="K55" s="337">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="338"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -34534,11 +35723,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="337">
+      <c r="K57" s="339">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="338"/>
+      <c r="L57" s="340"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -34555,22 +35744,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="314" t="s">
+      <c r="D59" s="316" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="315"/>
+      <c r="E59" s="317"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="316" t="s">
+      <c r="I59" s="318" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="317"/>
-      <c r="K59" s="318">
+      <c r="J59" s="319"/>
+      <c r="K59" s="320">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="318"/>
+      <c r="L59" s="320"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="454">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1802,6 +1802,84 @@
   <si>
     <t>LONGAZNIZA</t>
   </si>
+  <si>
+    <t>05730 D</t>
+  </si>
+  <si>
+    <t>05896 D</t>
+  </si>
+  <si>
+    <t>05937 D</t>
+  </si>
+  <si>
+    <t>05989 D</t>
+  </si>
+  <si>
+    <t>06028 D</t>
+  </si>
+  <si>
+    <t>06130 D</t>
+  </si>
+  <si>
+    <t>06316 D</t>
+  </si>
+  <si>
+    <t>06358 D</t>
+  </si>
+  <si>
+    <t>06412 D</t>
+  </si>
+  <si>
+    <t>06413 D</t>
+  </si>
+  <si>
+    <t>06560 D</t>
+  </si>
+  <si>
+    <t>06640 D</t>
+  </si>
+  <si>
+    <t>06648 D</t>
+  </si>
+  <si>
+    <t>06718 D</t>
+  </si>
+  <si>
+    <t>06835 D</t>
+  </si>
+  <si>
+    <t>06963 D</t>
+  </si>
+  <si>
+    <t>07141 D</t>
+  </si>
+  <si>
+    <t>07142 D</t>
+  </si>
+  <si>
+    <t>07242 D</t>
+  </si>
+  <si>
+    <t>07340 D</t>
+  </si>
+  <si>
+    <t>07471 D</t>
+  </si>
+  <si>
+    <t>07578 D</t>
+  </si>
+  <si>
+    <t>07579 D</t>
+  </si>
+  <si>
+    <t>07787 D</t>
+  </si>
+  <si>
+    <t>07881 D</t>
+  </si>
+  <si>
+    <t>07883 D</t>
+  </si>
 </sst>
 </file>
 
@@ -1815,7 +1893,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,6 +2326,22 @@
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF66CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3131,7 +3225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3687,39 +3781,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3801,11 +3864,54 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="55" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="56" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="55" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3816,9 +3922,9 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF800000"/>
-      <color rgb="FFFF66CC"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -7533,23 +7639,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7559,21 +7665,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7588,14 +7694,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -7605,11 +7711,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9110,11 +9216,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="323">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -9140,8 +9246,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9356,29 +9462,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="328"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="329">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="330"/>
-      <c r="M53" s="331">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="332"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="333" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="333"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -9389,22 +9495,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="334" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="334"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="335" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="336"/>
-      <c r="K55" s="337">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9435,11 +9541,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="339">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9456,22 +9562,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="316" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="317"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="318" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="319"/>
-      <c r="K59" s="320">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="320"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -9615,6 +9721,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -9630,12 +9742,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9651,8 +9757,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11065,7 +11171,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+      <selection activeCell="I59" sqref="I59:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11088,23 +11194,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11114,21 +11220,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11143,14 +11249,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11160,11 +11266,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12741,11 +12847,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="323">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12777,8 +12883,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13024,29 +13130,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="328"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="329">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="330"/>
-      <c r="M53" s="331">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="332"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="333" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="333"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -13057,22 +13163,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="334" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="334"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
-        <v>-2747780.48</v>
-      </c>
-      <c r="I55" s="335" t="s">
+        <v>-2875380.48</v>
+      </c>
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="336"/>
-      <c r="K55" s="337">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
-        <v>375154.74000000011</v>
-      </c>
-      <c r="L55" s="338"/>
+        <v>247554.74000000008</v>
+      </c>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13096,18 +13202,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>96767.830000000075</v>
+        <v>-30832.169999999925</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="339">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13124,22 +13230,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="316" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="317"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="318" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="319"/>
-      <c r="K59" s="320">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
-        <v>225215.93000000011</v>
-      </c>
-      <c r="L59" s="320"/>
+        <v>97615.93000000008</v>
+      </c>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13286,18 +13392,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13307,6 +13401,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13322,15 +13428,15 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B36:B37"/>
+    <sheetView topLeftCell="B29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="233" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -13712,11 +13818,15 @@
       <c r="C18" s="132">
         <v>141561.31</v>
       </c>
-      <c r="D18" s="269"/>
-      <c r="E18" s="132"/>
+      <c r="D18" s="269">
+        <v>44729</v>
+      </c>
+      <c r="E18" s="132">
+        <v>141561.31</v>
+      </c>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
-        <v>141561.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13729,11 +13839,15 @@
       <c r="C19" s="132">
         <v>88357.89</v>
       </c>
-      <c r="D19" s="269"/>
-      <c r="E19" s="132"/>
+      <c r="D19" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E19" s="345">
+        <v>88357.89</v>
+      </c>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
-        <v>229919.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13746,11 +13860,15 @@
       <c r="C20" s="132">
         <v>1800</v>
       </c>
-      <c r="D20" s="269"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E20" s="345">
+        <v>1800</v>
+      </c>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
-        <v>231719.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13763,11 +13881,15 @@
       <c r="C21" s="132">
         <v>124846.39999999999</v>
       </c>
-      <c r="D21" s="269"/>
-      <c r="E21" s="132"/>
+      <c r="D21" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E21" s="345">
+        <v>124846.39999999999</v>
+      </c>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
-        <v>356565.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13780,11 +13902,15 @@
       <c r="C22" s="132">
         <v>30517.4</v>
       </c>
-      <c r="D22" s="269"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E22" s="345">
+        <v>30517.4</v>
+      </c>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
-        <v>387083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13797,11 +13923,15 @@
       <c r="C23" s="132">
         <v>105168.4</v>
       </c>
-      <c r="D23" s="269"/>
-      <c r="E23" s="132"/>
+      <c r="D23" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E23" s="345">
+        <v>105168.4</v>
+      </c>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
-        <v>492251.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -13814,11 +13944,15 @@
       <c r="C24" s="132">
         <v>1901.8</v>
       </c>
-      <c r="D24" s="269"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E24" s="345">
+        <v>1901.8</v>
+      </c>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
-        <v>494153.2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="162"/>
     </row>
@@ -13832,11 +13966,15 @@
       <c r="C25" s="132">
         <v>21748.2</v>
       </c>
-      <c r="D25" s="269"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E25" s="345">
+        <v>21748.2</v>
+      </c>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
-        <v>515901.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -13849,11 +13987,15 @@
       <c r="C26" s="132">
         <v>63869.33</v>
       </c>
-      <c r="D26" s="269"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E26" s="345">
+        <v>63869.33</v>
+      </c>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
-        <v>579770.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13866,11 +14008,15 @@
       <c r="C27" s="132">
         <v>2726.4</v>
       </c>
-      <c r="D27" s="269"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="346">
+        <v>44729</v>
+      </c>
+      <c r="E27" s="345">
+        <v>2726.4</v>
+      </c>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
-        <v>582497.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13881,13 +14027,17 @@
         <v>363</v>
       </c>
       <c r="C28" s="132">
-        <v>14428.64</v>
-      </c>
-      <c r="D28" s="269"/>
-      <c r="E28" s="132"/>
+        <v>144028.64000000001</v>
+      </c>
+      <c r="D28" s="269">
+        <v>44736</v>
+      </c>
+      <c r="E28" s="132">
+        <v>144028.64000000001</v>
+      </c>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>596925.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13900,11 +14050,15 @@
       <c r="C29" s="132">
         <v>131512.62</v>
       </c>
-      <c r="D29" s="269"/>
-      <c r="E29" s="132"/>
+      <c r="D29" s="269">
+        <v>44736</v>
+      </c>
+      <c r="E29" s="132">
+        <v>131512.62</v>
+      </c>
       <c r="F29" s="196">
-        <f t="shared" si="0"/>
-        <v>728438.39</v>
+        <f>C29-E29+F28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13915,13 +14069,17 @@
         <v>365</v>
       </c>
       <c r="C30" s="132">
-        <v>68859.600000000006</v>
-      </c>
-      <c r="D30" s="267"/>
-      <c r="E30" s="132"/>
+        <v>66859.600000000006</v>
+      </c>
+      <c r="D30" s="269">
+        <v>44736</v>
+      </c>
+      <c r="E30" s="132">
+        <v>66859.600000000006</v>
+      </c>
       <c r="F30" s="196">
-        <f t="shared" si="0"/>
-        <v>797297.99</v>
+        <f t="shared" ref="F30:F78" si="1">C30-E30+F29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13934,11 +14092,15 @@
       <c r="C31" s="132">
         <v>42136.6</v>
       </c>
-      <c r="D31" s="269"/>
-      <c r="E31" s="132"/>
+      <c r="D31" s="269">
+        <v>44736</v>
+      </c>
+      <c r="E31" s="132">
+        <v>42136.6</v>
+      </c>
       <c r="F31" s="196">
-        <f t="shared" si="0"/>
-        <v>839434.59</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13951,11 +14113,15 @@
       <c r="C32" s="132">
         <v>138883.07999999999</v>
       </c>
-      <c r="D32" s="269"/>
-      <c r="E32" s="132"/>
+      <c r="D32" s="269">
+        <v>44736</v>
+      </c>
+      <c r="E32" s="132">
+        <v>138883.07999999999</v>
+      </c>
       <c r="F32" s="196">
-        <f t="shared" si="0"/>
-        <v>978317.66999999993</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G32" s="162"/>
     </row>
@@ -13969,11 +14135,15 @@
       <c r="C33" s="132">
         <v>181425.6</v>
       </c>
-      <c r="D33" s="269"/>
-      <c r="E33" s="132"/>
+      <c r="D33" s="348">
+        <v>44743</v>
+      </c>
+      <c r="E33" s="347">
+        <v>181425.6</v>
+      </c>
       <c r="F33" s="196">
-        <f t="shared" si="0"/>
-        <v>1159743.27</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13986,11 +14156,15 @@
       <c r="C34" s="132">
         <v>6873.3</v>
       </c>
-      <c r="D34" s="269"/>
-      <c r="E34" s="132"/>
+      <c r="D34" s="348">
+        <v>44743</v>
+      </c>
+      <c r="E34" s="347">
+        <v>6873.3</v>
+      </c>
       <c r="F34" s="196">
-        <f t="shared" si="0"/>
-        <v>1166616.57</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14003,11 +14177,15 @@
       <c r="C35" s="132">
         <v>41033.42</v>
       </c>
-      <c r="D35" s="269"/>
-      <c r="E35" s="132"/>
+      <c r="D35" s="348">
+        <v>44743</v>
+      </c>
+      <c r="E35" s="347">
+        <v>41033.42</v>
+      </c>
       <c r="F35" s="196">
-        <f t="shared" si="0"/>
-        <v>1207649.99</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14020,11 +14198,15 @@
       <c r="C36" s="132">
         <v>133753.5</v>
       </c>
-      <c r="D36" s="269"/>
-      <c r="E36" s="132"/>
+      <c r="D36" s="348">
+        <v>44743</v>
+      </c>
+      <c r="E36" s="347">
+        <v>133753.5</v>
+      </c>
       <c r="F36" s="196">
-        <f t="shared" si="0"/>
-        <v>1341403.49</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14037,11 +14219,15 @@
       <c r="C37" s="132">
         <v>132774.54</v>
       </c>
-      <c r="D37" s="269"/>
-      <c r="E37" s="132"/>
+      <c r="D37" s="348">
+        <v>44743</v>
+      </c>
+      <c r="E37" s="347">
+        <v>132774.54</v>
+      </c>
       <c r="F37" s="196">
-        <f t="shared" si="0"/>
-        <v>1474178.03</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14054,11 +14240,15 @@
       <c r="C38" s="132">
         <v>86830.49</v>
       </c>
-      <c r="D38" s="269"/>
-      <c r="E38" s="132"/>
+      <c r="D38" s="286">
+        <v>44750</v>
+      </c>
+      <c r="E38" s="287">
+        <v>86830.49</v>
+      </c>
       <c r="F38" s="196">
-        <f t="shared" si="0"/>
-        <v>1561008.52</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14071,11 +14261,15 @@
       <c r="C39" s="132">
         <v>142079.78</v>
       </c>
-      <c r="D39" s="269"/>
-      <c r="E39" s="132"/>
+      <c r="D39" s="286">
+        <v>44750</v>
+      </c>
+      <c r="E39" s="287">
+        <v>142079.78</v>
+      </c>
       <c r="F39" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14085,8 +14279,8 @@
       <c r="D40" s="269"/>
       <c r="E40" s="86"/>
       <c r="F40" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14096,8 +14290,8 @@
       <c r="D41" s="269"/>
       <c r="E41" s="86"/>
       <c r="F41" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14107,8 +14301,8 @@
       <c r="D42" s="269"/>
       <c r="E42" s="86"/>
       <c r="F42" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14118,8 +14312,8 @@
       <c r="D43" s="159"/>
       <c r="E43" s="86"/>
       <c r="F43" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14129,8 +14323,8 @@
       <c r="D44" s="159"/>
       <c r="E44" s="86"/>
       <c r="F44" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14140,8 +14334,8 @@
       <c r="D45" s="159"/>
       <c r="E45" s="86"/>
       <c r="F45" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14151,8 +14345,8 @@
       <c r="D46" s="159"/>
       <c r="E46" s="86"/>
       <c r="F46" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14162,8 +14356,8 @@
       <c r="D47" s="159"/>
       <c r="E47" s="86"/>
       <c r="F47" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14173,8 +14367,8 @@
       <c r="D48" s="159"/>
       <c r="E48" s="86"/>
       <c r="F48" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14184,8 +14378,8 @@
       <c r="D49" s="159"/>
       <c r="E49" s="86"/>
       <c r="F49" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14195,8 +14389,8 @@
       <c r="D50" s="159"/>
       <c r="E50" s="86"/>
       <c r="F50" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14206,8 +14400,8 @@
       <c r="D51" s="159"/>
       <c r="E51" s="86"/>
       <c r="F51" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14217,8 +14411,8 @@
       <c r="D52" s="159"/>
       <c r="E52" s="86"/>
       <c r="F52" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14228,8 +14422,8 @@
       <c r="D53" s="159"/>
       <c r="E53" s="86"/>
       <c r="F53" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14239,8 +14433,8 @@
       <c r="D54" s="159"/>
       <c r="E54" s="86"/>
       <c r="F54" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14250,8 +14444,8 @@
       <c r="D55" s="159"/>
       <c r="E55" s="86"/>
       <c r="F55" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14261,8 +14455,8 @@
       <c r="D56" s="159"/>
       <c r="E56" s="86"/>
       <c r="F56" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14272,8 +14466,8 @@
       <c r="D57" s="159"/>
       <c r="E57" s="86"/>
       <c r="F57" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14283,8 +14477,8 @@
       <c r="D58" s="159"/>
       <c r="E58" s="86"/>
       <c r="F58" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14294,8 +14488,8 @@
       <c r="D59" s="159"/>
       <c r="E59" s="86"/>
       <c r="F59" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14305,8 +14499,8 @@
       <c r="D60" s="159"/>
       <c r="E60" s="86"/>
       <c r="F60" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14316,8 +14510,8 @@
       <c r="D61" s="159"/>
       <c r="E61" s="86"/>
       <c r="F61" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14327,8 +14521,8 @@
       <c r="D62" s="170"/>
       <c r="E62" s="34"/>
       <c r="F62" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14338,8 +14532,8 @@
       <c r="D63" s="170"/>
       <c r="E63" s="34"/>
       <c r="F63" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14349,8 +14543,8 @@
       <c r="D64" s="170"/>
       <c r="E64" s="34"/>
       <c r="F64" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14360,8 +14554,8 @@
       <c r="D65" s="170"/>
       <c r="E65" s="34"/>
       <c r="F65" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14371,8 +14565,8 @@
       <c r="D66" s="170"/>
       <c r="E66" s="34"/>
       <c r="F66" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14382,8 +14576,8 @@
       <c r="D67" s="170"/>
       <c r="E67" s="34"/>
       <c r="F67" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14393,8 +14587,8 @@
       <c r="D68" s="171"/>
       <c r="E68" s="86"/>
       <c r="F68" s="196">
-        <f t="shared" si="0"/>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14404,8 +14598,8 @@
       <c r="D69" s="171"/>
       <c r="E69" s="86"/>
       <c r="F69" s="196">
-        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>1703088.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14416,7 +14610,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14427,7 +14621,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14438,7 +14632,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14449,7 +14643,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14460,7 +14654,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14471,7 +14665,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14482,7 +14676,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14493,7 +14687,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14506,7 +14700,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -14514,16 +14708,16 @@
       <c r="B79" s="232"/>
       <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
-        <v>2747780.4799999995</v>
+        <v>2875380.48</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
         <f>SUM(E3:E78)</f>
-        <v>1044692.1799999999</v>
+        <v>2875380.48</v>
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>1703088.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -14700,23 +14894,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14726,21 +14920,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14755,14 +14949,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14772,11 +14966,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16268,11 +16462,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="323">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -16302,8 +16496,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16518,29 +16712,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="328"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="329">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="330"/>
-      <c r="M53" s="331">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="332"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="333" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="333"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -16551,22 +16745,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="334" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="334"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="335" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="336"/>
-      <c r="K55" s="337">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16597,11 +16791,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="339">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16618,22 +16812,22 @@
       <c r="C59" s="133">
         <v>44773</v>
       </c>
-      <c r="D59" s="316" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="317"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="318" t="s">
+      <c r="I59" s="309" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="319"/>
-      <c r="K59" s="320">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="320"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -16777,18 +16971,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16798,6 +16980,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16813,8 +17007,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16872,11 +17066,15 @@
       <c r="C3" s="266">
         <v>129755.9</v>
       </c>
-      <c r="D3" s="288"/>
-      <c r="E3" s="289"/>
+      <c r="D3" s="349">
+        <v>44750</v>
+      </c>
+      <c r="E3" s="350">
+        <v>129755.9</v>
+      </c>
       <c r="F3" s="158">
         <f>C3-E3</f>
-        <v>129755.9</v>
+        <v>0</v>
       </c>
       <c r="J3" s="132"/>
     </row>
@@ -16890,11 +17088,15 @@
       <c r="C4" s="132">
         <v>14947.2</v>
       </c>
-      <c r="D4" s="288"/>
-      <c r="E4" s="284"/>
+      <c r="D4" s="349">
+        <v>44750</v>
+      </c>
+      <c r="E4" s="287">
+        <v>14947.2</v>
+      </c>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
-        <v>144703.1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="266"/>
     </row>
@@ -16908,11 +17110,15 @@
       <c r="C5" s="132">
         <v>92642.6</v>
       </c>
-      <c r="D5" s="288"/>
-      <c r="E5" s="284"/>
+      <c r="D5" s="349">
+        <v>44750</v>
+      </c>
+      <c r="E5" s="287">
+        <v>92642.6</v>
+      </c>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>237345.7</v>
+        <v>0</v>
       </c>
       <c r="J5" s="132"/>
     </row>
@@ -16926,11 +17132,15 @@
       <c r="C6" s="132">
         <v>69904.100000000006</v>
       </c>
-      <c r="D6" s="288"/>
-      <c r="E6" s="284"/>
+      <c r="D6" s="349">
+        <v>44750</v>
+      </c>
+      <c r="E6" s="287">
+        <v>69904.100000000006</v>
+      </c>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
-        <v>307249.80000000005</v>
+        <v>0</v>
       </c>
       <c r="G6" s="162"/>
       <c r="J6" s="132"/>
@@ -16945,11 +17155,15 @@
       <c r="C7" s="132">
         <v>144242.76</v>
       </c>
-      <c r="D7" s="288"/>
-      <c r="E7" s="284"/>
+      <c r="D7" s="349">
+        <v>44750</v>
+      </c>
+      <c r="E7" s="287">
+        <v>144242.76</v>
+      </c>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
-        <v>451492.56000000006</v>
+        <v>0</v>
       </c>
       <c r="J7" s="132"/>
     </row>
@@ -16963,11 +17177,15 @@
       <c r="C8" s="132">
         <v>5072.6000000000004</v>
       </c>
-      <c r="D8" s="269"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="349">
+        <v>44750</v>
+      </c>
+      <c r="E8" s="287">
+        <v>5072.6000000000004</v>
+      </c>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
-        <v>456565.16000000003</v>
+        <v>0</v>
       </c>
       <c r="J8" s="132"/>
     </row>
@@ -16981,11 +17199,15 @@
       <c r="C9" s="132">
         <v>265.5</v>
       </c>
-      <c r="D9" s="269"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="283">
+        <v>44757</v>
+      </c>
+      <c r="E9" s="284">
+        <v>265.5</v>
+      </c>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
-        <v>456830.66000000003</v>
+        <v>0</v>
       </c>
       <c r="J9" s="132"/>
     </row>
@@ -16999,11 +17221,15 @@
       <c r="C10" s="132">
         <v>119029.9</v>
       </c>
-      <c r="D10" s="269"/>
-      <c r="E10" s="132"/>
+      <c r="D10" s="283">
+        <v>44757</v>
+      </c>
+      <c r="E10" s="284">
+        <v>119029.9</v>
+      </c>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
-        <v>575860.56000000006</v>
+        <v>0</v>
       </c>
       <c r="J10" s="117">
         <v>0</v>
@@ -17019,11 +17245,15 @@
       <c r="C11" s="132">
         <v>86612.94</v>
       </c>
-      <c r="D11" s="269"/>
-      <c r="E11" s="132"/>
+      <c r="D11" s="283">
+        <v>44757</v>
+      </c>
+      <c r="E11" s="284">
+        <v>86612.94</v>
+      </c>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
-        <v>662473.5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="277">
         <f>SUM(J3:J10)</f>
@@ -17040,11 +17270,15 @@
       <c r="C12" s="132">
         <v>29055.5</v>
       </c>
-      <c r="D12" s="269"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="283">
+        <v>44757</v>
+      </c>
+      <c r="E12" s="284">
+        <v>29055.5</v>
+      </c>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
-        <v>691529</v>
+        <v>0</v>
       </c>
       <c r="G12" s="162"/>
     </row>
@@ -17058,11 +17292,15 @@
       <c r="C13" s="132">
         <v>87559.6</v>
       </c>
-      <c r="D13" s="269"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="283">
+        <v>44757</v>
+      </c>
+      <c r="E13" s="284">
+        <v>87559.6</v>
+      </c>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
-        <v>779088.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17075,11 +17313,15 @@
       <c r="C14" s="132">
         <v>132564.79999999999</v>
       </c>
-      <c r="D14" s="269"/>
-      <c r="E14" s="132"/>
+      <c r="D14" s="283">
+        <v>44757</v>
+      </c>
+      <c r="E14" s="284">
+        <v>132564.79999999999</v>
+      </c>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
-        <v>911653.39999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17092,11 +17334,15 @@
       <c r="C15" s="132">
         <v>44983.4</v>
       </c>
-      <c r="D15" s="269"/>
-      <c r="E15" s="132"/>
+      <c r="D15" s="283">
+        <v>44757</v>
+      </c>
+      <c r="E15" s="284">
+        <v>44983.4</v>
+      </c>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
-        <v>956636.79999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17109,11 +17355,15 @@
       <c r="C16" s="132">
         <v>155220.28</v>
       </c>
-      <c r="D16" s="269"/>
-      <c r="E16" s="132"/>
+      <c r="D16" s="269">
+        <v>44764</v>
+      </c>
+      <c r="E16" s="132">
+        <v>155220.28</v>
+      </c>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
-        <v>1111857.0799999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17126,11 +17376,15 @@
       <c r="C17" s="132">
         <v>77061</v>
       </c>
-      <c r="D17" s="269"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="269">
+        <v>44764</v>
+      </c>
+      <c r="E17" s="132">
+        <v>77061</v>
+      </c>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
-        <v>1188918.0799999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17143,11 +17397,15 @@
       <c r="C18" s="132">
         <v>78240.2</v>
       </c>
-      <c r="D18" s="269"/>
-      <c r="E18" s="132"/>
+      <c r="D18" s="269">
+        <v>44764</v>
+      </c>
+      <c r="E18" s="132">
+        <v>78240.2</v>
+      </c>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
-        <v>1267158.2799999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17160,11 +17418,15 @@
       <c r="C19" s="132">
         <v>16361.3</v>
       </c>
-      <c r="D19" s="269"/>
-      <c r="E19" s="132"/>
+      <c r="D19" s="269">
+        <v>44764</v>
+      </c>
+      <c r="E19" s="132">
+        <v>16361.3</v>
+      </c>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
-        <v>1283519.5799999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17177,11 +17439,15 @@
       <c r="C20" s="132">
         <v>162807.84</v>
       </c>
-      <c r="D20" s="269"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="269">
+        <v>44764</v>
+      </c>
+      <c r="E20" s="132">
+        <v>162807.84</v>
+      </c>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
-        <v>1446327.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17194,11 +17460,15 @@
       <c r="C21" s="132">
         <v>144209.19</v>
       </c>
-      <c r="D21" s="269"/>
-      <c r="E21" s="132"/>
+      <c r="D21" s="269">
+        <v>44764</v>
+      </c>
+      <c r="E21" s="132">
+        <v>144209.19</v>
+      </c>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
-        <v>1590536.6099999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17211,11 +17481,15 @@
       <c r="C22" s="132">
         <v>120958.88</v>
       </c>
-      <c r="D22" s="269"/>
-      <c r="E22" s="132"/>
+      <c r="D22" s="269">
+        <v>44764</v>
+      </c>
+      <c r="E22" s="132">
+        <v>120958.88</v>
+      </c>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
-        <v>1711495.4899999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17228,11 +17502,15 @@
       <c r="C23" s="132">
         <v>135754.06</v>
       </c>
-      <c r="D23" s="269"/>
-      <c r="E23" s="132"/>
+      <c r="D23" s="351">
+        <v>44771</v>
+      </c>
+      <c r="E23" s="352">
+        <v>135754.06</v>
+      </c>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
-        <v>1847249.5499999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -17245,11 +17523,15 @@
       <c r="C24" s="132">
         <v>4200</v>
       </c>
-      <c r="D24" s="269"/>
-      <c r="E24" s="132"/>
+      <c r="D24" s="351">
+        <v>44771</v>
+      </c>
+      <c r="E24" s="352">
+        <v>4200</v>
+      </c>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
-        <v>1851449.5499999998</v>
+        <v>0</v>
       </c>
       <c r="G24" s="162"/>
     </row>
@@ -17263,11 +17545,15 @@
       <c r="C25" s="132">
         <v>100782.12</v>
       </c>
-      <c r="D25" s="269"/>
-      <c r="E25" s="132"/>
+      <c r="D25" s="351">
+        <v>44771</v>
+      </c>
+      <c r="E25" s="352">
+        <v>100782.12</v>
+      </c>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
-        <v>1952231.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -17280,11 +17566,15 @@
       <c r="C26" s="132">
         <v>159228.38</v>
       </c>
-      <c r="D26" s="269"/>
-      <c r="E26" s="132"/>
+      <c r="D26" s="351">
+        <v>44771</v>
+      </c>
+      <c r="E26" s="352">
+        <v>159228.38</v>
+      </c>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
-        <v>2111460.0499999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17297,11 +17587,15 @@
       <c r="C27" s="132">
         <v>77241.66</v>
       </c>
-      <c r="D27" s="269"/>
-      <c r="E27" s="132"/>
+      <c r="D27" s="351">
+        <v>44771</v>
+      </c>
+      <c r="E27" s="352">
+        <v>77241.66</v>
+      </c>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
-        <v>2188701.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17314,11 +17608,15 @@
       <c r="C28" s="132">
         <v>126836.5</v>
       </c>
-      <c r="D28" s="269"/>
-      <c r="E28" s="132"/>
+      <c r="D28" s="344">
+        <v>44778</v>
+      </c>
+      <c r="E28" s="345">
+        <v>126836.5</v>
+      </c>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>2315538.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17331,11 +17629,15 @@
       <c r="C29" s="132">
         <v>49636.2</v>
       </c>
-      <c r="D29" s="269"/>
-      <c r="E29" s="132"/>
+      <c r="D29" s="344">
+        <v>44778</v>
+      </c>
+      <c r="E29" s="345">
+        <v>49636.2</v>
+      </c>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>2365174.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17348,11 +17650,15 @@
       <c r="C30" s="132">
         <v>106157.9</v>
       </c>
-      <c r="D30" s="267"/>
-      <c r="E30" s="132"/>
+      <c r="D30" s="344">
+        <v>44778</v>
+      </c>
+      <c r="E30" s="345">
+        <v>106157.9</v>
+      </c>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17363,7 +17669,7 @@
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17374,7 +17680,7 @@
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
       <c r="G32" s="162"/>
     </row>
@@ -17386,7 +17692,7 @@
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17397,7 +17703,7 @@
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17408,7 +17714,7 @@
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17419,7 +17725,7 @@
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17430,7 +17736,7 @@
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17441,7 +17747,7 @@
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17452,7 +17758,7 @@
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17463,7 +17769,7 @@
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17474,7 +17780,7 @@
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17485,7 +17791,7 @@
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -17496,7 +17802,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17507,7 +17813,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17518,7 +17824,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17529,7 +17835,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17540,7 +17846,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17551,7 +17857,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17562,7 +17868,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17573,7 +17879,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17584,7 +17890,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17595,7 +17901,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17606,7 +17912,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17617,7 +17923,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17628,7 +17934,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17639,7 +17945,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17650,7 +17956,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17661,7 +17967,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17672,7 +17978,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17683,7 +17989,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17694,7 +18000,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17705,7 +18011,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17716,7 +18022,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17727,7 +18033,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17738,7 +18044,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17749,7 +18055,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17760,7 +18066,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17771,7 +18077,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17782,7 +18088,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17793,7 +18099,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17804,7 +18110,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17815,7 +18121,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17826,7 +18132,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17837,7 +18143,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17848,7 +18154,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17859,7 +18165,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17870,7 +18176,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17883,7 +18189,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -17896,11 +18202,11 @@
       <c r="D79" s="189"/>
       <c r="E79" s="178">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>2471332.31</v>
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>2471332.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -18053,7 +18359,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+    <sheetView topLeftCell="H10" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -18077,23 +18383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18103,21 +18409,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18132,14 +18438,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18149,11 +18455,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19015,7 +19321,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="342">
+      <c r="M23" s="303">
         <f>40000</f>
         <v>40000</v>
       </c>
@@ -19026,7 +19332,7 @@
         <f t="shared" si="1"/>
         <v>65068</v>
       </c>
-      <c r="Q23" s="343">
+      <c r="Q23" s="304">
         <f t="shared" si="2"/>
         <v>-25848</v>
       </c>
@@ -19656,11 +19962,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="323">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>1531830</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>33626</v>
       </c>
@@ -19690,8 +19996,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19906,29 +20212,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="328"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="329">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>22547</v>
       </c>
-      <c r="L53" s="330"/>
-      <c r="M53" s="331">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>1565456</v>
       </c>
-      <c r="N53" s="332"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="333" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="333"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1535929</v>
@@ -19939,22 +20245,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="334" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="334"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="335" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="336"/>
-      <c r="K55" s="337">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>1535929</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19985,11 +20291,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="339">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -20004,22 +20310,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="316" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="317"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="318" t="s">
+      <c r="I59" s="309" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="319"/>
-      <c r="K59" s="320">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>1262192.58</v>
       </c>
-      <c r="L59" s="320"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -20163,18 +20469,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20184,6 +20478,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20199,8 +20505,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20249,11 +20555,21 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="264"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="266"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="289"/>
+      <c r="A3" s="264">
+        <v>44774</v>
+      </c>
+      <c r="B3" s="265" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="266">
+        <v>91101.64</v>
+      </c>
+      <c r="D3" s="353">
+        <v>44778</v>
+      </c>
+      <c r="E3" s="354">
+        <v>91101.64</v>
+      </c>
       <c r="F3" s="158">
         <f>C3-E3</f>
         <v>0</v>
@@ -20261,11 +20577,21 @@
       <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="267"/>
-      <c r="B4" s="268"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="288"/>
-      <c r="E4" s="284"/>
+      <c r="A4" s="267">
+        <v>44775</v>
+      </c>
+      <c r="B4" s="268" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="132">
+        <v>11743.2</v>
+      </c>
+      <c r="D4" s="353">
+        <v>44778</v>
+      </c>
+      <c r="E4" s="345">
+        <v>11743.2</v>
+      </c>
       <c r="F4" s="196">
         <f>C4-E4+F3</f>
         <v>0</v>
@@ -20273,11 +20599,21 @@
       <c r="J4" s="266"/>
     </row>
     <row r="5" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="267"/>
-      <c r="B5" s="268"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="288"/>
-      <c r="E5" s="284"/>
+      <c r="A5" s="267">
+        <v>44776</v>
+      </c>
+      <c r="B5" s="268" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" s="132">
+        <v>106066.52</v>
+      </c>
+      <c r="D5" s="353">
+        <v>44778</v>
+      </c>
+      <c r="E5" s="345">
+        <v>106066.52</v>
+      </c>
       <c r="F5" s="196">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
         <v>0</v>
@@ -20285,11 +20621,21 @@
       <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="267"/>
-      <c r="B6" s="268"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="288"/>
-      <c r="E6" s="284"/>
+      <c r="A6" s="267">
+        <v>44776</v>
+      </c>
+      <c r="B6" s="268" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="132">
+        <v>22321.599999999999</v>
+      </c>
+      <c r="D6" s="353">
+        <v>44778</v>
+      </c>
+      <c r="E6" s="345">
+        <v>22321.599999999999</v>
+      </c>
       <c r="F6" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20298,11 +20644,21 @@
       <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="267"/>
-      <c r="B7" s="268"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="288"/>
-      <c r="E7" s="284"/>
+      <c r="A7" s="267">
+        <v>44777</v>
+      </c>
+      <c r="B7" s="268" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="132">
+        <v>94909.4</v>
+      </c>
+      <c r="D7" s="353">
+        <v>44778</v>
+      </c>
+      <c r="E7" s="345">
+        <v>94909.4</v>
+      </c>
       <c r="F7" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20310,11 +20666,21 @@
       <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="267"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="132"/>
+      <c r="A8" s="267">
+        <v>44778</v>
+      </c>
+      <c r="B8" s="268" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="132">
+        <v>156187.41</v>
+      </c>
+      <c r="D8" s="353">
+        <v>44778</v>
+      </c>
+      <c r="E8" s="345">
+        <v>156187.41</v>
+      </c>
       <c r="F8" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20322,11 +20688,21 @@
       <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="267"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="132"/>
+      <c r="A9" s="267">
+        <v>44779</v>
+      </c>
+      <c r="B9" s="268" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="132">
+        <v>133227.72</v>
+      </c>
+      <c r="D9" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E9" s="287">
+        <v>133227.72</v>
+      </c>
       <c r="F9" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20334,11 +20710,21 @@
       <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="267"/>
-      <c r="B10" s="268"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="132"/>
+      <c r="A10" s="267">
+        <v>44780</v>
+      </c>
+      <c r="B10" s="268" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="132">
+        <v>11673.2</v>
+      </c>
+      <c r="D10" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E10" s="287">
+        <v>11673.2</v>
+      </c>
       <c r="F10" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20348,11 +20734,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="267"/>
-      <c r="B11" s="268"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="132"/>
+      <c r="A11" s="267">
+        <v>44781</v>
+      </c>
+      <c r="B11" s="268" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="132">
+        <v>96756.18</v>
+      </c>
+      <c r="D11" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E11" s="287">
+        <v>96756.18</v>
+      </c>
       <c r="F11" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20363,11 +20759,21 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="267"/>
-      <c r="B12" s="268"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="269"/>
-      <c r="E12" s="132"/>
+      <c r="A12" s="267">
+        <v>44781</v>
+      </c>
+      <c r="B12" s="268" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="132">
+        <v>9469.6</v>
+      </c>
+      <c r="D12" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E12" s="287">
+        <v>9469.6</v>
+      </c>
       <c r="F12" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20375,132 +20781,252 @@
       <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="267"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="269"/>
-      <c r="E13" s="132"/>
+      <c r="A13" s="267">
+        <v>44782</v>
+      </c>
+      <c r="B13" s="268" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="132">
+        <v>19882.8</v>
+      </c>
+      <c r="D13" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E13" s="287">
+        <v>19882.8</v>
+      </c>
       <c r="F13" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="267"/>
-      <c r="B14" s="268"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="269"/>
-      <c r="E14" s="132"/>
+      <c r="A14" s="267">
+        <v>44783</v>
+      </c>
+      <c r="B14" s="268" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="132">
+        <v>135477.76000000001</v>
+      </c>
+      <c r="D14" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E14" s="287">
+        <v>135477.76000000001</v>
+      </c>
       <c r="F14" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="267"/>
-      <c r="B15" s="268"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="132"/>
+      <c r="A15" s="267">
+        <v>44783</v>
+      </c>
+      <c r="B15" s="268" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="132">
+        <v>17886.400000000001</v>
+      </c>
+      <c r="D15" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E15" s="287">
+        <v>17886.400000000001</v>
+      </c>
       <c r="F15" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="267"/>
-      <c r="B16" s="268"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="132"/>
+      <c r="A16" s="267">
+        <v>44784</v>
+      </c>
+      <c r="B16" s="268" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="132">
+        <v>100230.24</v>
+      </c>
+      <c r="D16" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E16" s="287">
+        <v>100230.24</v>
+      </c>
       <c r="F16" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="132"/>
+      <c r="A17" s="267">
+        <v>44785</v>
+      </c>
+      <c r="B17" s="268" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="132">
+        <v>37154</v>
+      </c>
+      <c r="D17" s="286">
+        <v>44785</v>
+      </c>
+      <c r="E17" s="287">
+        <v>37154</v>
+      </c>
       <c r="F17" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="267"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="132"/>
+      <c r="A18" s="267">
+        <v>44786</v>
+      </c>
+      <c r="B18" s="268" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" s="132">
+        <v>160037.66</v>
+      </c>
+      <c r="D18" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E18" s="284">
+        <v>160037.66</v>
+      </c>
       <c r="F18" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="267"/>
-      <c r="B19" s="268"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="132"/>
+      <c r="A19" s="267">
+        <v>44788</v>
+      </c>
+      <c r="B19" s="268" t="s">
+        <v>444</v>
+      </c>
+      <c r="C19" s="132">
+        <v>76183.64</v>
+      </c>
+      <c r="D19" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E19" s="284">
+        <v>76183.64</v>
+      </c>
       <c r="F19" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="267"/>
-      <c r="B20" s="268"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="269"/>
-      <c r="E20" s="132"/>
+      <c r="A20" s="267">
+        <v>44788</v>
+      </c>
+      <c r="B20" s="268" t="s">
+        <v>445</v>
+      </c>
+      <c r="C20" s="132">
+        <v>9526.5</v>
+      </c>
+      <c r="D20" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E20" s="284">
+        <v>9526.5</v>
+      </c>
       <c r="F20" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="267"/>
-      <c r="B21" s="268"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="132"/>
+      <c r="A21" s="267">
+        <v>44789</v>
+      </c>
+      <c r="B21" s="268" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="132">
+        <v>81325.56</v>
+      </c>
+      <c r="D21" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E21" s="284">
+        <v>81325.56</v>
+      </c>
       <c r="F21" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="267"/>
-      <c r="B22" s="268"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="269"/>
-      <c r="E22" s="132"/>
+      <c r="A22" s="267">
+        <v>44790</v>
+      </c>
+      <c r="B22" s="268" t="s">
+        <v>447</v>
+      </c>
+      <c r="C22" s="132">
+        <v>17944.2</v>
+      </c>
+      <c r="D22" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E22" s="284">
+        <v>17944.2</v>
+      </c>
       <c r="F22" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="267"/>
-      <c r="B23" s="268"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="269"/>
-      <c r="E23" s="132"/>
+      <c r="A23" s="267">
+        <v>44791</v>
+      </c>
+      <c r="B23" s="268" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="132">
+        <v>139269.35999999999</v>
+      </c>
+      <c r="D23" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E23" s="284">
+        <v>139269.35999999999</v>
+      </c>
       <c r="F23" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="267"/>
-      <c r="B24" s="268"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="269"/>
-      <c r="E24" s="132"/>
+      <c r="A24" s="267">
+        <v>44792</v>
+      </c>
+      <c r="B24" s="268" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="132">
+        <v>152813.51999999999</v>
+      </c>
+      <c r="D24" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E24" s="284">
+        <v>152813.51999999999</v>
+      </c>
       <c r="F24" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -20508,47 +21034,75 @@
       <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="267"/>
-      <c r="B25" s="268"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="269"/>
-      <c r="E25" s="132"/>
+      <c r="A25" s="267">
+        <v>44792</v>
+      </c>
+      <c r="B25" s="268" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="132">
+        <v>1251.8</v>
+      </c>
+      <c r="D25" s="355">
+        <v>44792</v>
+      </c>
+      <c r="E25" s="284">
+        <v>1251.8</v>
+      </c>
       <c r="F25" s="196">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="267"/>
-      <c r="B26" s="268"/>
-      <c r="C26" s="132"/>
+      <c r="A26" s="267">
+        <v>44793</v>
+      </c>
+      <c r="B26" s="268" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26" s="132">
+        <v>135851.88</v>
+      </c>
       <c r="D26" s="269"/>
       <c r="E26" s="132"/>
       <c r="F26" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135851.88</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="267"/>
-      <c r="B27" s="268"/>
-      <c r="C27" s="132"/>
+      <c r="A27" s="267">
+        <v>44795</v>
+      </c>
+      <c r="B27" s="268" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27" s="132">
+        <v>68026.320000000007</v>
+      </c>
       <c r="D27" s="269"/>
       <c r="E27" s="132"/>
       <c r="F27" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>203878.2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="267"/>
-      <c r="B28" s="268"/>
-      <c r="C28" s="132"/>
+      <c r="A28" s="267">
+        <v>44795</v>
+      </c>
+      <c r="B28" s="268" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" s="132">
+        <v>1920</v>
+      </c>
       <c r="D28" s="269"/>
       <c r="E28" s="132"/>
       <c r="F28" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20559,7 +21113,7 @@
       <c r="E29" s="132"/>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20570,7 +21124,7 @@
       <c r="E30" s="132"/>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20581,7 +21135,7 @@
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20592,7 +21146,7 @@
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
       <c r="G32" s="162"/>
     </row>
@@ -20604,7 +21158,7 @@
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20615,7 +21169,7 @@
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20626,7 +21180,7 @@
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20637,7 +21191,7 @@
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20648,7 +21202,7 @@
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20659,7 +21213,7 @@
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20670,7 +21224,7 @@
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20681,7 +21235,7 @@
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20692,7 +21246,7 @@
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20703,7 +21257,7 @@
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -20714,7 +21268,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -20725,7 +21279,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20736,7 +21290,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20747,7 +21301,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20758,7 +21312,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20769,7 +21323,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20780,7 +21334,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20791,7 +21345,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20802,7 +21356,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20813,7 +21367,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20824,7 +21378,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20835,7 +21389,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20846,7 +21400,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20857,7 +21411,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20868,7 +21422,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20879,7 +21433,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20890,7 +21444,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20901,7 +21455,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20912,7 +21466,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20923,7 +21477,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20934,7 +21488,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20945,7 +21499,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20956,7 +21510,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20967,7 +21521,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20978,7 +21532,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -20989,7 +21543,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21000,7 +21554,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21011,7 +21565,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21022,7 +21576,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21033,7 +21587,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21044,7 +21598,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21055,7 +21609,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21066,7 +21620,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21077,7 +21631,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21088,7 +21642,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21101,7 +21655,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -21109,16 +21663,16 @@
       <c r="B79" s="232"/>
       <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
+        <v>1888238.11</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
         <f>SUM(E3:E78)</f>
-        <v>0</v>
+        <v>1682439.91</v>
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>0</v>
+        <v>205798.2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -23085,23 +23639,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -23111,21 +23665,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23140,14 +23694,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -23157,11 +23711,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -24645,11 +25199,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="341">
+      <c r="M40" s="343">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -24675,8 +25229,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -24891,29 +25445,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="328"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="329">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="330"/>
-      <c r="M53" s="331">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="332"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="333" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="333"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -24924,22 +25478,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="334" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="334"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="335" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="336"/>
-      <c r="K55" s="337">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -24970,11 +25524,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="339">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -24991,22 +25545,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="316" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="317"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="318" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="319"/>
-      <c r="K59" s="320">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="320"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -25150,6 +25704,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25159,18 +25725,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26475,23 +27029,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26501,21 +27055,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26530,14 +27084,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -26547,11 +27101,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -28049,11 +28603,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="323">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -28079,8 +28633,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -28223,29 +28777,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="327" t="s">
+      <c r="H49" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="328"/>
+      <c r="I49" s="319"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="329">
+      <c r="K49" s="320">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="330"/>
-      <c r="M49" s="331">
+      <c r="L49" s="321"/>
+      <c r="M49" s="322">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="332"/>
+      <c r="N49" s="323"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="333" t="s">
+      <c r="D50" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="333"/>
+      <c r="E50" s="324"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -28256,22 +28810,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="334" t="s">
+      <c r="D51" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="334"/>
+      <c r="E51" s="325"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="335" t="s">
+      <c r="I51" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="336"/>
-      <c r="K51" s="337">
+      <c r="J51" s="327"/>
+      <c r="K51" s="328">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="338"/>
+      <c r="L51" s="329"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -28302,11 +28856,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="339">
+      <c r="K53" s="330">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="340"/>
+      <c r="L53" s="331"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -28323,22 +28877,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="316" t="s">
+      <c r="D55" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="317"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="318" t="s">
+      <c r="I55" s="309" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="319"/>
-      <c r="K55" s="320">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="320"/>
+      <c r="L55" s="311"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -28485,18 +29039,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28506,6 +29048,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29980,23 +30534,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30006,21 +30560,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -30035,14 +30589,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -30052,11 +30606,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -31700,11 +32254,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="323">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -31736,8 +32290,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -31972,29 +32526,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="328"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="329">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="330"/>
-      <c r="M53" s="331">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="332"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="333" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="333"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -32005,22 +32559,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="334" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="334"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="335" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="336"/>
-      <c r="K55" s="337">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -32051,11 +32605,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="339">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -32072,22 +32626,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="316" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="317"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="318" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="319"/>
-      <c r="K59" s="320">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="320"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -32234,18 +32788,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32255,6 +32797,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33758,23 +34312,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="303"/>
-      <c r="C1" s="305" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="334" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="304"/>
+      <c r="B2" s="333"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33784,21 +34338,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="308"/>
+      <c r="B3" s="336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="337"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="309" t="s">
+      <c r="H3" s="338" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="309"/>
+      <c r="I3" s="338"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -33813,14 +34367,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="E4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="311"/>
-      <c r="H4" s="312" t="s">
+      <c r="F4" s="340"/>
+      <c r="H4" s="341" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="313"/>
+      <c r="I4" s="342"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -33830,11 +34384,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="321" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="322"/>
-      <c r="R4" s="315"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -35398,11 +35952,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="323">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="325">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -35428,8 +35982,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="324"/>
-      <c r="N41" s="326"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -35644,29 +36198,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="328"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="329">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="330"/>
-      <c r="M53" s="331">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="332"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="333" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="333"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -35677,22 +36231,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="334" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="334"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="335" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="336"/>
-      <c r="K55" s="337">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -35723,11 +36277,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="339">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="340"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -35744,22 +36298,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="316" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="317"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="318" t="s">
+      <c r="I59" s="309" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="319"/>
-      <c r="K59" s="320">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="320"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -35906,6 +36460,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -35915,18 +36481,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="455">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1879,6 +1879,9 @@
   </si>
   <si>
     <t>07883 D</t>
+  </si>
+  <si>
+    <t>NOMINA # 34</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3781,8 +3784,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="55" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="50" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="56" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="55" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3900,18 +3913,6 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="55" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="56" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="55" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7639,23 +7640,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7665,21 +7666,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7694,14 +7695,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -7711,11 +7712,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9216,11 +9217,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -9246,8 +9247,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9462,29 +9463,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="330">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="331"/>
+      <c r="M53" s="332">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -9495,22 +9496,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="335"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="337"/>
+      <c r="K55" s="338">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="339"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9541,11 +9542,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="340">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="341"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9562,22 +9563,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="319" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="320"/>
+      <c r="K59" s="321">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="321"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -11194,23 +11195,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11220,21 +11221,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11249,14 +11250,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11266,11 +11267,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12847,11 +12848,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12883,8 +12884,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13130,29 +13131,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="330">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="331"/>
+      <c r="M53" s="332">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -13163,22 +13164,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="335"/>
       <c r="F55" s="115">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="337"/>
+      <c r="K55" s="338">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="339"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13209,11 +13210,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="340">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="341"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13230,22 +13231,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="319" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="320"/>
+      <c r="K59" s="321">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="321"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13538,7 +13539,7 @@
         <v>19341.099999999999</v>
       </c>
       <c r="F5" s="196">
-        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <f t="shared" ref="F5:F28" si="0">C5-E5+F4</f>
         <v>0</v>
       </c>
       <c r="J5" s="132"/>
@@ -13839,10 +13840,10 @@
       <c r="C19" s="132">
         <v>88357.89</v>
       </c>
-      <c r="D19" s="346">
+      <c r="D19" s="305">
         <v>44729</v>
       </c>
-      <c r="E19" s="345">
+      <c r="E19" s="304">
         <v>88357.89</v>
       </c>
       <c r="F19" s="196">
@@ -13860,10 +13861,10 @@
       <c r="C20" s="132">
         <v>1800</v>
       </c>
-      <c r="D20" s="346">
+      <c r="D20" s="305">
         <v>44729</v>
       </c>
-      <c r="E20" s="345">
+      <c r="E20" s="304">
         <v>1800</v>
       </c>
       <c r="F20" s="196">
@@ -13881,10 +13882,10 @@
       <c r="C21" s="132">
         <v>124846.39999999999</v>
       </c>
-      <c r="D21" s="346">
+      <c r="D21" s="305">
         <v>44729</v>
       </c>
-      <c r="E21" s="345">
+      <c r="E21" s="304">
         <v>124846.39999999999</v>
       </c>
       <c r="F21" s="196">
@@ -13902,10 +13903,10 @@
       <c r="C22" s="132">
         <v>30517.4</v>
       </c>
-      <c r="D22" s="346">
+      <c r="D22" s="305">
         <v>44729</v>
       </c>
-      <c r="E22" s="345">
+      <c r="E22" s="304">
         <v>30517.4</v>
       </c>
       <c r="F22" s="196">
@@ -13923,10 +13924,10 @@
       <c r="C23" s="132">
         <v>105168.4</v>
       </c>
-      <c r="D23" s="346">
+      <c r="D23" s="305">
         <v>44729</v>
       </c>
-      <c r="E23" s="345">
+      <c r="E23" s="304">
         <v>105168.4</v>
       </c>
       <c r="F23" s="196">
@@ -13944,10 +13945,10 @@
       <c r="C24" s="132">
         <v>1901.8</v>
       </c>
-      <c r="D24" s="346">
+      <c r="D24" s="305">
         <v>44729</v>
       </c>
-      <c r="E24" s="345">
+      <c r="E24" s="304">
         <v>1901.8</v>
       </c>
       <c r="F24" s="196">
@@ -13966,10 +13967,10 @@
       <c r="C25" s="132">
         <v>21748.2</v>
       </c>
-      <c r="D25" s="346">
+      <c r="D25" s="305">
         <v>44729</v>
       </c>
-      <c r="E25" s="345">
+      <c r="E25" s="304">
         <v>21748.2</v>
       </c>
       <c r="F25" s="196">
@@ -13987,10 +13988,10 @@
       <c r="C26" s="132">
         <v>63869.33</v>
       </c>
-      <c r="D26" s="346">
+      <c r="D26" s="305">
         <v>44729</v>
       </c>
-      <c r="E26" s="345">
+      <c r="E26" s="304">
         <v>63869.33</v>
       </c>
       <c r="F26" s="196">
@@ -14008,10 +14009,10 @@
       <c r="C27" s="132">
         <v>2726.4</v>
       </c>
-      <c r="D27" s="346">
+      <c r="D27" s="305">
         <v>44729</v>
       </c>
-      <c r="E27" s="345">
+      <c r="E27" s="304">
         <v>2726.4</v>
       </c>
       <c r="F27" s="196">
@@ -14135,10 +14136,10 @@
       <c r="C33" s="132">
         <v>181425.6</v>
       </c>
-      <c r="D33" s="348">
+      <c r="D33" s="307">
         <v>44743</v>
       </c>
-      <c r="E33" s="347">
+      <c r="E33" s="306">
         <v>181425.6</v>
       </c>
       <c r="F33" s="196">
@@ -14156,10 +14157,10 @@
       <c r="C34" s="132">
         <v>6873.3</v>
       </c>
-      <c r="D34" s="348">
+      <c r="D34" s="307">
         <v>44743</v>
       </c>
-      <c r="E34" s="347">
+      <c r="E34" s="306">
         <v>6873.3</v>
       </c>
       <c r="F34" s="196">
@@ -14177,10 +14178,10 @@
       <c r="C35" s="132">
         <v>41033.42</v>
       </c>
-      <c r="D35" s="348">
+      <c r="D35" s="307">
         <v>44743</v>
       </c>
-      <c r="E35" s="347">
+      <c r="E35" s="306">
         <v>41033.42</v>
       </c>
       <c r="F35" s="196">
@@ -14198,10 +14199,10 @@
       <c r="C36" s="132">
         <v>133753.5</v>
       </c>
-      <c r="D36" s="348">
+      <c r="D36" s="307">
         <v>44743</v>
       </c>
-      <c r="E36" s="347">
+      <c r="E36" s="306">
         <v>133753.5</v>
       </c>
       <c r="F36" s="196">
@@ -14219,10 +14220,10 @@
       <c r="C37" s="132">
         <v>132774.54</v>
       </c>
-      <c r="D37" s="348">
+      <c r="D37" s="307">
         <v>44743</v>
       </c>
-      <c r="E37" s="347">
+      <c r="E37" s="306">
         <v>132774.54</v>
       </c>
       <c r="F37" s="196">
@@ -14894,23 +14895,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14920,21 +14921,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14949,14 +14950,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14966,11 +14967,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16462,11 +16463,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -16496,8 +16497,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16712,29 +16713,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="330">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="331"/>
+      <c r="M53" s="332">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -16745,22 +16746,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="335"/>
       <c r="F55" s="115">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="337"/>
+      <c r="K55" s="338">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="339"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16791,11 +16792,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="340">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="341"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16812,22 +16813,22 @@
       <c r="C59" s="133">
         <v>44773</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="134">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="319" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="320"/>
+      <c r="K59" s="321">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="321"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17066,10 +17067,10 @@
       <c r="C3" s="266">
         <v>129755.9</v>
       </c>
-      <c r="D3" s="349">
+      <c r="D3" s="308">
         <v>44750</v>
       </c>
-      <c r="E3" s="350">
+      <c r="E3" s="309">
         <v>129755.9</v>
       </c>
       <c r="F3" s="158">
@@ -17088,7 +17089,7 @@
       <c r="C4" s="132">
         <v>14947.2</v>
       </c>
-      <c r="D4" s="349">
+      <c r="D4" s="308">
         <v>44750</v>
       </c>
       <c r="E4" s="287">
@@ -17110,7 +17111,7 @@
       <c r="C5" s="132">
         <v>92642.6</v>
       </c>
-      <c r="D5" s="349">
+      <c r="D5" s="308">
         <v>44750</v>
       </c>
       <c r="E5" s="287">
@@ -17132,7 +17133,7 @@
       <c r="C6" s="132">
         <v>69904.100000000006</v>
       </c>
-      <c r="D6" s="349">
+      <c r="D6" s="308">
         <v>44750</v>
       </c>
       <c r="E6" s="287">
@@ -17155,7 +17156,7 @@
       <c r="C7" s="132">
         <v>144242.76</v>
       </c>
-      <c r="D7" s="349">
+      <c r="D7" s="308">
         <v>44750</v>
       </c>
       <c r="E7" s="287">
@@ -17177,7 +17178,7 @@
       <c r="C8" s="132">
         <v>5072.6000000000004</v>
       </c>
-      <c r="D8" s="349">
+      <c r="D8" s="308">
         <v>44750</v>
       </c>
       <c r="E8" s="287">
@@ -17502,10 +17503,10 @@
       <c r="C23" s="132">
         <v>135754.06</v>
       </c>
-      <c r="D23" s="351">
+      <c r="D23" s="310">
         <v>44771</v>
       </c>
-      <c r="E23" s="352">
+      <c r="E23" s="311">
         <v>135754.06</v>
       </c>
       <c r="F23" s="196">
@@ -17523,10 +17524,10 @@
       <c r="C24" s="132">
         <v>4200</v>
       </c>
-      <c r="D24" s="351">
+      <c r="D24" s="310">
         <v>44771</v>
       </c>
-      <c r="E24" s="352">
+      <c r="E24" s="311">
         <v>4200</v>
       </c>
       <c r="F24" s="196">
@@ -17545,10 +17546,10 @@
       <c r="C25" s="132">
         <v>100782.12</v>
       </c>
-      <c r="D25" s="351">
+      <c r="D25" s="310">
         <v>44771</v>
       </c>
-      <c r="E25" s="352">
+      <c r="E25" s="311">
         <v>100782.12</v>
       </c>
       <c r="F25" s="196">
@@ -17566,10 +17567,10 @@
       <c r="C26" s="132">
         <v>159228.38</v>
       </c>
-      <c r="D26" s="351">
+      <c r="D26" s="310">
         <v>44771</v>
       </c>
-      <c r="E26" s="352">
+      <c r="E26" s="311">
         <v>159228.38</v>
       </c>
       <c r="F26" s="196">
@@ -17587,10 +17588,10 @@
       <c r="C27" s="132">
         <v>77241.66</v>
       </c>
-      <c r="D27" s="351">
+      <c r="D27" s="310">
         <v>44771</v>
       </c>
-      <c r="E27" s="352">
+      <c r="E27" s="311">
         <v>77241.66</v>
       </c>
       <c r="F27" s="196">
@@ -17608,10 +17609,10 @@
       <c r="C28" s="132">
         <v>126836.5</v>
       </c>
-      <c r="D28" s="344">
+      <c r="D28" s="303">
         <v>44778</v>
       </c>
-      <c r="E28" s="345">
+      <c r="E28" s="304">
         <v>126836.5</v>
       </c>
       <c r="F28" s="196">
@@ -17629,10 +17630,10 @@
       <c r="C29" s="132">
         <v>49636.2</v>
       </c>
-      <c r="D29" s="344">
+      <c r="D29" s="303">
         <v>44778</v>
       </c>
-      <c r="E29" s="345">
+      <c r="E29" s="304">
         <v>49636.2</v>
       </c>
       <c r="F29" s="196">
@@ -17650,10 +17651,10 @@
       <c r="C30" s="132">
         <v>106157.9</v>
       </c>
-      <c r="D30" s="344">
+      <c r="D30" s="303">
         <v>44778</v>
       </c>
-      <c r="E30" s="345">
+      <c r="E30" s="304">
         <v>106157.9</v>
       </c>
       <c r="F30" s="196">
@@ -18359,8 +18360,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18383,23 +18384,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18409,21 +18410,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18438,14 +18439,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18455,11 +18456,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19321,20 +19322,20 @@
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
-      <c r="M23" s="303">
-        <f>40000</f>
-        <v>40000</v>
+      <c r="M23" s="32">
+        <f>40000+25848</f>
+        <v>65848</v>
       </c>
       <c r="N23" s="33">
         <v>1648</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="1"/>
-        <v>65068</v>
-      </c>
-      <c r="Q23" s="304">
+        <v>90916</v>
+      </c>
+      <c r="Q23" s="13">
         <f t="shared" si="2"/>
-        <v>-25848</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
@@ -19352,24 +19353,35 @@
       <c r="E24" s="28">
         <v>44793</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <v>116105</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="30">
         <v>44793</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="31">
+        <v>116</v>
+      </c>
+      <c r="J24" s="181">
+        <v>44793</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="L24" s="63">
+        <v>9500</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>67009+35000</f>
+        <v>102009</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>4480</v>
       </c>
       <c r="P24" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116105</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="2"/>
@@ -19385,33 +19397,40 @@
         <v>44794</v>
       </c>
       <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>3180</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E25" s="28">
         <v>44794</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <v>128512</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="30">
         <v>44794</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>90</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="290"/>
       <c r="L25" s="66"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <f>60000+50000+12403</f>
+        <v>122403</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>2839</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128512</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="2"/>
@@ -19433,24 +19452,29 @@
       <c r="E26" s="28">
         <v>44795</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>52480</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="30">
         <v>44795</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>119</v>
+      </c>
       <c r="J26" s="38"/>
       <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>37111+10000</f>
+        <v>47111</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="P26" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52480</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="2"/>
@@ -19466,18 +19490,24 @@
         <v>44796</v>
       </c>
       <c r="C27" s="26">
-        <v>0</v>
-      </c>
-      <c r="D27" s="41"/>
+        <v>450</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="E27" s="28">
         <v>44796</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <v>62313</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44796</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>66</v>
+      </c>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
@@ -19489,11 +19519,11 @@
       </c>
       <c r="P27" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-61797</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -19962,21 +19992,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
-        <v>1531830</v>
-      </c>
-      <c r="N40" s="316">
+        <v>1829201</v>
+      </c>
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
-        <v>33626</v>
+        <v>46195</v>
       </c>
       <c r="P40" s="34">
         <f t="shared" si="1"/>
-        <v>1565456</v>
+        <v>1875396</v>
       </c>
       <c r="Q40" s="294">
         <f>SUM(Q5:Q39)</f>
-        <v>-25847</v>
+        <v>-61796</v>
       </c>
       <c r="R40" s="295">
         <f>SUM(R5:R39)</f>
@@ -19996,8 +20026,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -20170,7 +20200,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>69425</v>
+        <v>73055</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -20178,7 +20208,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1627901</v>
+        <v>1987311</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -20186,7 +20216,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>2547</v>
+        <v>2938</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -20194,7 +20224,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>20000</v>
+        <v>29500</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -20212,32 +20242,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="330">
         <f>I51+L51</f>
-        <v>22547</v>
-      </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+        <v>32438</v>
+      </c>
+      <c r="L53" s="331"/>
+      <c r="M53" s="332">
         <f>N40+M40</f>
-        <v>1565456</v>
-      </c>
-      <c r="N53" s="323"/>
+        <v>1875396</v>
+      </c>
+      <c r="N53" s="333"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1535929</v>
+        <v>1881818</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -20245,22 +20275,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="335"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="337"/>
+      <c r="K55" s="338">
         <f>F57+F58+F59</f>
-        <v>1535929</v>
-      </c>
-      <c r="L55" s="329"/>
+        <v>1881818</v>
+      </c>
+      <c r="L55" s="339"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -20284,18 +20314,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1535929</v>
+        <v>1881818</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="340">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="341"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -20310,22 +20340,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="319" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="320"/>
+      <c r="K59" s="321">
         <f>K55+K57</f>
-        <v>1262192.58</v>
-      </c>
-      <c r="L59" s="311"/>
+        <v>1608081.58</v>
+      </c>
+      <c r="L59" s="321"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -20505,7 +20535,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -20564,10 +20594,10 @@
       <c r="C3" s="266">
         <v>91101.64</v>
       </c>
-      <c r="D3" s="353">
+      <c r="D3" s="312">
         <v>44778</v>
       </c>
-      <c r="E3" s="354">
+      <c r="E3" s="313">
         <v>91101.64</v>
       </c>
       <c r="F3" s="158">
@@ -20586,10 +20616,10 @@
       <c r="C4" s="132">
         <v>11743.2</v>
       </c>
-      <c r="D4" s="353">
+      <c r="D4" s="312">
         <v>44778</v>
       </c>
-      <c r="E4" s="345">
+      <c r="E4" s="304">
         <v>11743.2</v>
       </c>
       <c r="F4" s="196">
@@ -20608,10 +20638,10 @@
       <c r="C5" s="132">
         <v>106066.52</v>
       </c>
-      <c r="D5" s="353">
+      <c r="D5" s="312">
         <v>44778</v>
       </c>
-      <c r="E5" s="345">
+      <c r="E5" s="304">
         <v>106066.52</v>
       </c>
       <c r="F5" s="196">
@@ -20630,10 +20660,10 @@
       <c r="C6" s="132">
         <v>22321.599999999999</v>
       </c>
-      <c r="D6" s="353">
+      <c r="D6" s="312">
         <v>44778</v>
       </c>
-      <c r="E6" s="345">
+      <c r="E6" s="304">
         <v>22321.599999999999</v>
       </c>
       <c r="F6" s="196">
@@ -20653,10 +20683,10 @@
       <c r="C7" s="132">
         <v>94909.4</v>
       </c>
-      <c r="D7" s="353">
+      <c r="D7" s="312">
         <v>44778</v>
       </c>
-      <c r="E7" s="345">
+      <c r="E7" s="304">
         <v>94909.4</v>
       </c>
       <c r="F7" s="196">
@@ -20675,10 +20705,10 @@
       <c r="C8" s="132">
         <v>156187.41</v>
       </c>
-      <c r="D8" s="353">
+      <c r="D8" s="312">
         <v>44778</v>
       </c>
-      <c r="E8" s="345">
+      <c r="E8" s="304">
         <v>156187.41</v>
       </c>
       <c r="F8" s="196">
@@ -20895,7 +20925,7 @@
       <c r="C18" s="132">
         <v>160037.66</v>
       </c>
-      <c r="D18" s="355">
+      <c r="D18" s="314">
         <v>44792</v>
       </c>
       <c r="E18" s="284">
@@ -20916,7 +20946,7 @@
       <c r="C19" s="132">
         <v>76183.64</v>
       </c>
-      <c r="D19" s="355">
+      <c r="D19" s="314">
         <v>44792</v>
       </c>
       <c r="E19" s="284">
@@ -20937,7 +20967,7 @@
       <c r="C20" s="132">
         <v>9526.5</v>
       </c>
-      <c r="D20" s="355">
+      <c r="D20" s="314">
         <v>44792</v>
       </c>
       <c r="E20" s="284">
@@ -20958,7 +20988,7 @@
       <c r="C21" s="132">
         <v>81325.56</v>
       </c>
-      <c r="D21" s="355">
+      <c r="D21" s="314">
         <v>44792</v>
       </c>
       <c r="E21" s="284">
@@ -20979,7 +21009,7 @@
       <c r="C22" s="132">
         <v>17944.2</v>
       </c>
-      <c r="D22" s="355">
+      <c r="D22" s="314">
         <v>44792</v>
       </c>
       <c r="E22" s="284">
@@ -21000,7 +21030,7 @@
       <c r="C23" s="132">
         <v>139269.35999999999</v>
       </c>
-      <c r="D23" s="355">
+      <c r="D23" s="314">
         <v>44792</v>
       </c>
       <c r="E23" s="284">
@@ -21021,7 +21051,7 @@
       <c r="C24" s="132">
         <v>152813.51999999999</v>
       </c>
-      <c r="D24" s="355">
+      <c r="D24" s="314">
         <v>44792</v>
       </c>
       <c r="E24" s="284">
@@ -21043,7 +21073,7 @@
       <c r="C25" s="132">
         <v>1251.8</v>
       </c>
-      <c r="D25" s="355">
+      <c r="D25" s="314">
         <v>44792</v>
       </c>
       <c r="E25" s="284">
@@ -23639,23 +23669,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -23665,21 +23695,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23694,14 +23724,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -23711,11 +23741,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -25199,11 +25229,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="343">
+      <c r="M40" s="353">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -25229,8 +25259,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -25445,29 +25475,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="330">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="331"/>
+      <c r="M53" s="332">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -25478,22 +25508,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="335"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="337"/>
+      <c r="K55" s="338">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="339"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -25524,11 +25554,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="340">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="341"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -25545,22 +25575,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="319" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="320"/>
+      <c r="K59" s="321">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="321"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -27029,23 +27059,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -27055,21 +27085,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -27084,14 +27114,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -27101,11 +27131,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -28603,11 +28633,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -28633,8 +28663,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -28777,29 +28807,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="318" t="s">
+      <c r="H49" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="319"/>
+      <c r="I49" s="329"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="320">
+      <c r="K49" s="330">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="321"/>
-      <c r="M49" s="322">
+      <c r="L49" s="331"/>
+      <c r="M49" s="332">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="323"/>
+      <c r="N49" s="333"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="324" t="s">
+      <c r="D50" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="324"/>
+      <c r="E50" s="334"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -28810,22 +28840,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="325" t="s">
+      <c r="D51" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="325"/>
+      <c r="E51" s="335"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="326" t="s">
+      <c r="I51" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="327"/>
-      <c r="K51" s="328">
+      <c r="J51" s="337"/>
+      <c r="K51" s="338">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="329"/>
+      <c r="L51" s="339"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -28856,11 +28886,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="330">
+      <c r="K53" s="340">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="331"/>
+      <c r="L53" s="341"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -28877,22 +28907,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="307" t="s">
+      <c r="D55" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="318"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="319" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="320"/>
+      <c r="K55" s="321">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="311"/>
+      <c r="L55" s="321"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -30534,23 +30564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30560,21 +30590,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -30589,14 +30619,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -30606,11 +30636,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -32254,11 +32284,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="314">
+      <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -32290,8 +32320,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -32526,29 +32556,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="330">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="331"/>
+      <c r="M53" s="332">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -32559,22 +32589,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="335"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="337"/>
+      <c r="K55" s="338">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="339"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -32605,11 +32635,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="340">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="341"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -32626,22 +32656,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="319" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="320"/>
+      <c r="K59" s="321">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="321"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -34312,23 +34342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="332"/>
-      <c r="C1" s="334" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="344" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="333"/>
+      <c r="B2" s="343"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34338,21 +34368,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="336" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="337"/>
+      <c r="B3" s="346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="347"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="338"/>
+      <c r="I3" s="348"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="315" t="s">
         <v>38</v>
       </c>
     </row>
@@ -34367,14 +34397,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="339" t="s">
+      <c r="E4" s="349" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="340"/>
-      <c r="H4" s="341" t="s">
+      <c r="F4" s="350"/>
+      <c r="H4" s="351" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="342"/>
+      <c r="I4" s="352"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -34384,11 +34414,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="322" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="316"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -35952,11 +35982,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -35982,8 +36012,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="325"/>
+      <c r="N41" s="327"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -36198,29 +36228,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="328" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="330">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="331"/>
+      <c r="M53" s="332">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="333"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="334" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -36231,22 +36261,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="335" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="335"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="337"/>
+      <c r="K55" s="338">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="339"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -36277,11 +36307,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="340">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="341"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -36298,22 +36328,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="318"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="319" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="320"/>
+      <c r="K59" s="321">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="321"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="465">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1882,6 +1882,36 @@
   </si>
   <si>
     <t>NOMINA # 34</t>
+  </si>
+  <si>
+    <t>NOMINA # 35</t>
+  </si>
+  <si>
+    <t>08046 D</t>
+  </si>
+  <si>
+    <t>08049 D</t>
+  </si>
+  <si>
+    <t>08082 D</t>
+  </si>
+  <si>
+    <t>08268 D</t>
+  </si>
+  <si>
+    <t>08406 D</t>
+  </si>
+  <si>
+    <t>08452 D</t>
+  </si>
+  <si>
+    <t>08459 D</t>
+  </si>
+  <si>
+    <t>Bolsas Boltex</t>
+  </si>
+  <si>
+    <t>TELMEX</t>
   </si>
 </sst>
 </file>
@@ -18360,8 +18390,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19512,18 +19542,19 @@
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <f>20000+1000+40637</f>
+        <v>61637</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="P27" s="34">
         <f t="shared" si="1"/>
-        <v>516</v>
+        <v>62313</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="2"/>
-        <v>-61797</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -19541,24 +19572,29 @@
       <c r="E28" s="28">
         <v>44797</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <v>83782</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44797</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>93</v>
+      </c>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>25000+56677</f>
+        <v>81677</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83782</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="2"/>
@@ -19574,30 +19610,37 @@
         <v>44798</v>
       </c>
       <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="71"/>
+        <v>20847</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>49</v>
+      </c>
       <c r="E29" s="28">
         <v>44798</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>98680</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44798</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>18</v>
+      </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>40000+35392</f>
+        <v>75392</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>2423</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>98680</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="2"/>
@@ -19619,28 +19662,32 @@
       <c r="E30" s="28">
         <v>44799</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <v>79287</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="30">
         <v>44799</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>230</v>
+      </c>
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <f>15000+62857</f>
+        <v>77857</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79287</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -19658,24 +19705,35 @@
       <c r="E31" s="28">
         <v>44800</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <v>133187</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="30">
         <v>44800</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="I31" s="31">
+        <v>100</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44800</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="L31" s="77">
+        <v>9500</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <f>60000+55000</f>
+        <v>115000</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>8587</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>133187</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="2"/>
@@ -19697,24 +19755,29 @@
       <c r="E32" s="28">
         <v>44801</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>135166</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="30">
         <v>44801</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>131</v>
+      </c>
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>80000+40000+14495</f>
+        <v>134495</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>135166</v>
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="2"/>
@@ -19726,21 +19789,13 @@
     </row>
     <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
-      <c r="B33" s="25">
-        <v>44802</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="28">
-        <v>44802</v>
-      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="29"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="30">
-        <v>44802</v>
-      </c>
+      <c r="H33" s="30"/>
       <c r="I33" s="31"/>
       <c r="J33" s="73"/>
       <c r="K33" s="76"/>
@@ -19765,25 +19820,23 @@
     </row>
     <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
-      <c r="B34" s="25">
-        <v>44803</v>
-      </c>
-      <c r="C34" s="26">
-        <v>0</v>
-      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="78"/>
-      <c r="E34" s="28">
-        <v>44803</v>
-      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="29"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="30">
-        <v>44803</v>
-      </c>
+      <c r="H34" s="30"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
+      <c r="J34" s="73">
+        <v>44786</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="82">
+        <v>1392</v>
+      </c>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -19803,25 +19856,23 @@
     </row>
     <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
-      <c r="B35" s="25">
-        <v>44804</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0</v>
-      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="83"/>
-      <c r="E35" s="28">
-        <v>44804</v>
-      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="30">
-        <v>44804</v>
-      </c>
+      <c r="H35" s="30"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="80"/>
+      <c r="J35" s="73">
+        <v>44798</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>463</v>
+      </c>
+      <c r="L35" s="80">
+        <v>8406.25</v>
+      </c>
       <c r="M35" s="32">
         <v>0</v>
       </c>
@@ -19839,25 +19890,23 @@
     </row>
     <row r="36" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
-      <c r="B36" s="25">
-        <v>44805</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0</v>
-      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="84"/>
-      <c r="E36" s="28">
-        <v>44805</v>
-      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="29"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="30">
-        <v>44805</v>
-      </c>
+      <c r="H36" s="30"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="299"/>
-      <c r="K36" s="301"/>
-      <c r="L36" s="80"/>
+      <c r="J36" s="299">
+        <v>44790</v>
+      </c>
+      <c r="K36" s="301" t="s">
+        <v>464</v>
+      </c>
+      <c r="L36" s="80">
+        <v>549</v>
+      </c>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -19875,21 +19924,13 @@
     </row>
     <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24"/>
-      <c r="B37" s="25">
-        <v>44806</v>
-      </c>
-      <c r="C37" s="26">
-        <v>0</v>
-      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="78"/>
-      <c r="E37" s="28">
-        <v>44806</v>
-      </c>
+      <c r="E37" s="28"/>
       <c r="F37" s="29"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="30">
-        <v>44806</v>
-      </c>
+      <c r="H37" s="30"/>
       <c r="I37" s="31"/>
       <c r="J37" s="73"/>
       <c r="K37" s="300"/>
@@ -19910,21 +19951,13 @@
     </row>
     <row r="38" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
-      <c r="B38" s="25">
-        <v>44807</v>
-      </c>
-      <c r="C38" s="26">
-        <v>0</v>
-      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="79"/>
-      <c r="E38" s="28">
-        <v>44807</v>
-      </c>
+      <c r="E38" s="28"/>
       <c r="F38" s="29"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="30">
-        <v>44807</v>
-      </c>
+      <c r="H38" s="30"/>
       <c r="I38" s="31"/>
       <c r="J38" s="73"/>
       <c r="K38" s="42"/>
@@ -19945,21 +19978,13 @@
     </row>
     <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="24"/>
-      <c r="B39" s="25">
-        <v>44808</v>
-      </c>
-      <c r="C39" s="26">
-        <v>0</v>
-      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="28">
-        <v>44808</v>
-      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="85"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="30">
-        <v>44808</v>
-      </c>
+      <c r="H39" s="30"/>
       <c r="I39" s="31"/>
       <c r="J39" s="73"/>
       <c r="K39" s="276"/>
@@ -19994,19 +20019,19 @@
       <c r="L40" s="75"/>
       <c r="M40" s="324">
         <f>SUM(M5:M39)</f>
-        <v>1829201</v>
+        <v>2375259</v>
       </c>
       <c r="N40" s="326">
         <f>SUM(N5:N39)</f>
-        <v>46195</v>
+        <v>61117</v>
       </c>
       <c r="P40" s="34">
         <f t="shared" si="1"/>
-        <v>1875396</v>
+        <v>2436376</v>
       </c>
       <c r="Q40" s="294">
         <f>SUM(Q5:Q39)</f>
-        <v>-61796</v>
+        <v>1</v>
       </c>
       <c r="R40" s="295">
         <f>SUM(R5:R39)</f>
@@ -20200,7 +20225,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>73055</v>
+        <v>93902</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -20208,7 +20233,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1987311</v>
+        <v>2517413</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -20216,7 +20241,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>2938</v>
+        <v>3510</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -20224,7 +20249,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>29500</v>
+        <v>49347.25</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -20249,12 +20274,12 @@
       <c r="J53" s="119"/>
       <c r="K53" s="330">
         <f>I51+L51</f>
-        <v>32438</v>
+        <v>52857.25</v>
       </c>
       <c r="L53" s="331"/>
       <c r="M53" s="332">
         <f>N40+M40</f>
-        <v>1875396</v>
+        <v>2436376</v>
       </c>
       <c r="N53" s="333"/>
       <c r="P53" s="34"/>
@@ -20267,7 +20292,7 @@
       <c r="E54" s="334"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1881818</v>
+        <v>2370653.75</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -20280,7 +20305,7 @@
       </c>
       <c r="E55" s="335"/>
       <c r="F55" s="115">
-        <v>0</v>
+        <v>-2401197.5699999998</v>
       </c>
       <c r="I55" s="336" t="s">
         <v>15</v>
@@ -20288,7 +20313,7 @@
       <c r="J55" s="337"/>
       <c r="K55" s="338">
         <f>F57+F58+F59</f>
-        <v>1881818</v>
+        <v>259241.77000000016</v>
       </c>
       <c r="L55" s="339"/>
       <c r="P55" s="34"/>
@@ -20314,7 +20339,7 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1881818</v>
+        <v>-30543.819999999832</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
@@ -20335,17 +20360,19 @@
         <v>19</v>
       </c>
       <c r="F58" s="132">
-        <v>0</v>
+        <v>53385</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
+      <c r="C59" s="133">
+        <v>44801</v>
+      </c>
       <c r="D59" s="317" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="318"/>
       <c r="F59" s="134">
-        <v>0</v>
+        <v>236400.59</v>
       </c>
       <c r="I59" s="319" t="s">
         <v>325</v>
@@ -20353,7 +20380,7 @@
       <c r="J59" s="320"/>
       <c r="K59" s="321">
         <f>K55+K57</f>
-        <v>1608081.58</v>
+        <v>-14494.64999999982</v>
       </c>
       <c r="L59" s="321"/>
     </row>
@@ -20535,8 +20562,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21136,81 +21163,123 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="267"/>
-      <c r="B29" s="268"/>
-      <c r="C29" s="132"/>
+      <c r="A29" s="267">
+        <v>44796</v>
+      </c>
+      <c r="B29" s="268" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="132">
+        <v>11649</v>
+      </c>
       <c r="D29" s="269"/>
       <c r="E29" s="132"/>
       <c r="F29" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>217447.2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="267"/>
-      <c r="B30" s="268"/>
-      <c r="C30" s="132"/>
+      <c r="A30" s="267">
+        <v>44796</v>
+      </c>
+      <c r="B30" s="268" t="s">
+        <v>457</v>
+      </c>
+      <c r="C30" s="132">
+        <v>13548.8</v>
+      </c>
       <c r="D30" s="267"/>
       <c r="E30" s="132"/>
       <c r="F30" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>230996</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267"/>
-      <c r="B31" s="268"/>
-      <c r="C31" s="132"/>
+      <c r="A31" s="267">
+        <v>44797</v>
+      </c>
+      <c r="B31" s="268" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="132">
+        <v>131246.78</v>
+      </c>
       <c r="D31" s="269"/>
       <c r="E31" s="132"/>
       <c r="F31" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>362242.78</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="267"/>
-      <c r="B32" s="268"/>
-      <c r="C32" s="132"/>
+      <c r="A32" s="267">
+        <v>44798</v>
+      </c>
+      <c r="B32" s="268" t="s">
+        <v>459</v>
+      </c>
+      <c r="C32" s="132">
+        <v>137590.51999999999</v>
+      </c>
       <c r="D32" s="269"/>
       <c r="E32" s="132"/>
       <c r="F32" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>499833.30000000005</v>
       </c>
       <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="267"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="132"/>
+      <c r="A33" s="267">
+        <v>44799</v>
+      </c>
+      <c r="B33" s="268" t="s">
+        <v>460</v>
+      </c>
+      <c r="C33" s="132">
+        <v>42523.44</v>
+      </c>
       <c r="D33" s="269"/>
       <c r="E33" s="132"/>
       <c r="F33" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>542356.74</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="267"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="132"/>
+      <c r="A34" s="267">
+        <v>44800</v>
+      </c>
+      <c r="B34" s="268" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" s="132">
+        <v>175893.52</v>
+      </c>
       <c r="D34" s="269"/>
       <c r="E34" s="132"/>
       <c r="F34" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718250.26</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="267"/>
-      <c r="B35" s="268"/>
-      <c r="C35" s="132"/>
+      <c r="A35" s="267">
+        <v>44800</v>
+      </c>
+      <c r="B35" s="268" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="132">
+        <v>507.4</v>
+      </c>
       <c r="D35" s="269"/>
       <c r="E35" s="132"/>
       <c r="F35" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21221,7 +21290,7 @@
       <c r="E36" s="132"/>
       <c r="F36" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21232,7 +21301,7 @@
       <c r="E37" s="132"/>
       <c r="F37" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21243,7 +21312,7 @@
       <c r="E38" s="132"/>
       <c r="F38" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21254,7 +21323,7 @@
       <c r="E39" s="132"/>
       <c r="F39" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21265,7 +21334,7 @@
       <c r="E40" s="86"/>
       <c r="F40" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21276,7 +21345,7 @@
       <c r="E41" s="86"/>
       <c r="F41" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21287,7 +21356,7 @@
       <c r="E42" s="86"/>
       <c r="F42" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -21298,7 +21367,7 @@
       <c r="E43" s="86"/>
       <c r="F43" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21309,7 +21378,7 @@
       <c r="E44" s="86"/>
       <c r="F44" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21320,7 +21389,7 @@
       <c r="E45" s="86"/>
       <c r="F45" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21331,7 +21400,7 @@
       <c r="E46" s="86"/>
       <c r="F46" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21342,7 +21411,7 @@
       <c r="E47" s="86"/>
       <c r="F47" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21353,7 +21422,7 @@
       <c r="E48" s="86"/>
       <c r="F48" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21364,7 +21433,7 @@
       <c r="E49" s="86"/>
       <c r="F49" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21375,7 +21444,7 @@
       <c r="E50" s="86"/>
       <c r="F50" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21386,7 +21455,7 @@
       <c r="E51" s="86"/>
       <c r="F51" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21397,7 +21466,7 @@
       <c r="E52" s="86"/>
       <c r="F52" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21408,7 +21477,7 @@
       <c r="E53" s="86"/>
       <c r="F53" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21419,7 +21488,7 @@
       <c r="E54" s="86"/>
       <c r="F54" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21430,7 +21499,7 @@
       <c r="E55" s="86"/>
       <c r="F55" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21441,7 +21510,7 @@
       <c r="E56" s="86"/>
       <c r="F56" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21452,7 +21521,7 @@
       <c r="E57" s="86"/>
       <c r="F57" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21463,7 +21532,7 @@
       <c r="E58" s="86"/>
       <c r="F58" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21474,7 +21543,7 @@
       <c r="E59" s="86"/>
       <c r="F59" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21485,7 +21554,7 @@
       <c r="E60" s="86"/>
       <c r="F60" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21496,7 +21565,7 @@
       <c r="E61" s="86"/>
       <c r="F61" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21507,7 +21576,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21518,7 +21587,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21529,7 +21598,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21540,7 +21609,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21551,7 +21620,7 @@
       <c r="E66" s="34"/>
       <c r="F66" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21562,7 +21631,7 @@
       <c r="E67" s="34"/>
       <c r="F67" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21573,7 +21642,7 @@
       <c r="E68" s="86"/>
       <c r="F68" s="196">
         <f t="shared" si="0"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21584,7 +21653,7 @@
       <c r="E69" s="86"/>
       <c r="F69" s="196">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21595,7 +21664,7 @@
       <c r="E70" s="86"/>
       <c r="F70" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21606,7 +21675,7 @@
       <c r="E71" s="86"/>
       <c r="F71" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21617,7 +21686,7 @@
       <c r="E72" s="86"/>
       <c r="F72" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21628,7 +21697,7 @@
       <c r="E73" s="86"/>
       <c r="F73" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21639,7 +21708,7 @@
       <c r="E74" s="86"/>
       <c r="F74" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21650,7 +21719,7 @@
       <c r="E75" s="86"/>
       <c r="F75" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21661,7 +21730,7 @@
       <c r="E76" s="86"/>
       <c r="F76" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21672,7 +21741,7 @@
       <c r="E77" s="86"/>
       <c r="F77" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21685,7 +21754,7 @@
       <c r="E78" s="34"/>
       <c r="F78" s="196">
         <f t="shared" si="1"/>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -21693,7 +21762,7 @@
       <c r="B79" s="232"/>
       <c r="C79" s="250">
         <f>SUM(C3:C78)</f>
-        <v>1888238.11</v>
+        <v>2401197.5699999998</v>
       </c>
       <c r="D79" s="189"/>
       <c r="E79" s="178">
@@ -21702,7 +21771,7 @@
       </c>
       <c r="F79" s="179">
         <f>F78</f>
-        <v>205798.2</v>
+        <v>718757.66</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/BALANCE   HERRADURA  AGOSTO      2022.xlsx
@@ -3258,7 +3258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3826,6 +3826,39 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="55" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="48" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3907,41 +3940,17 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="6" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="6" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7670,23 +7679,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7696,21 +7705,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7725,14 +7734,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -7742,11 +7751,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -9247,11 +9256,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="324">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -9277,8 +9286,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -9493,29 +9502,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="328" t="s">
+      <c r="H53" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="329"/>
+      <c r="I53" s="340"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="330">
+      <c r="K53" s="341">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="331"/>
-      <c r="M53" s="332">
+      <c r="L53" s="342"/>
+      <c r="M53" s="343">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="333"/>
+      <c r="N53" s="344"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="334" t="s">
+      <c r="D54" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="334"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -9526,22 +9535,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="335" t="s">
+      <c r="D55" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="335"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="336" t="s">
+      <c r="I55" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="337"/>
-      <c r="K55" s="338">
+      <c r="J55" s="348"/>
+      <c r="K55" s="349">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="339"/>
+      <c r="L55" s="350"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -9572,11 +9581,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="340">
+      <c r="K57" s="351">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -9593,22 +9602,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="318"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="319" t="s">
+      <c r="I59" s="330" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="320"/>
-      <c r="K59" s="321">
+      <c r="J59" s="331"/>
+      <c r="K59" s="332">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="321"/>
+      <c r="L59" s="332"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -9752,12 +9761,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -9773,6 +9776,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11225,23 +11234,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11251,21 +11260,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -11280,14 +11289,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -11297,11 +11306,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12878,11 +12887,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="324">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12914,8 +12923,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -13161,29 +13170,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="328" t="s">
+      <c r="H53" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="329"/>
+      <c r="I53" s="340"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="330">
+      <c r="K53" s="341">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="331"/>
-      <c r="M53" s="332">
+      <c r="L53" s="342"/>
+      <c r="M53" s="343">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="333"/>
+      <c r="N53" s="344"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="334" t="s">
+      <c r="D54" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="334"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -13194,22 +13203,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="335" t="s">
+      <c r="D55" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="335"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="115">
         <v>-2875380.48</v>
       </c>
-      <c r="I55" s="336" t="s">
+      <c r="I55" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="337"/>
-      <c r="K55" s="338">
+      <c r="J55" s="348"/>
+      <c r="K55" s="349">
         <f>F57+F58+F59</f>
         <v>247554.74000000008</v>
       </c>
-      <c r="L55" s="339"/>
+      <c r="L55" s="350"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -13240,11 +13249,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="340">
+      <c r="K57" s="351">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -13261,22 +13270,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="318"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="319" t="s">
+      <c r="I59" s="330" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="320"/>
-      <c r="K59" s="321">
+      <c r="J59" s="331"/>
+      <c r="K59" s="332">
         <f>K55+K57</f>
         <v>97615.93000000008</v>
       </c>
-      <c r="L59" s="321"/>
+      <c r="L59" s="332"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -13423,6 +13432,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13432,18 +13453,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14925,23 +14934,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14951,21 +14960,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14980,14 +14989,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14997,11 +15006,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16493,11 +16502,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="324">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -16527,8 +16536,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16743,29 +16752,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="328" t="s">
+      <c r="H53" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="329"/>
+      <c r="I53" s="340"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="330">
+      <c r="K53" s="341">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="331"/>
-      <c r="M53" s="332">
+      <c r="L53" s="342"/>
+      <c r="M53" s="343">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="333"/>
+      <c r="N53" s="344"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="334" t="s">
+      <c r="D54" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="334"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -16776,22 +16785,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="335" t="s">
+      <c r="D55" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="335"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="115">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="336" t="s">
+      <c r="I55" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="337"/>
-      <c r="K55" s="338">
+      <c r="J55" s="348"/>
+      <c r="K55" s="349">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="339"/>
+      <c r="L55" s="350"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16822,11 +16831,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="340">
+      <c r="K57" s="351">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16843,22 +16852,22 @@
       <c r="C59" s="133">
         <v>44773</v>
       </c>
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="318"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="134">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="319" t="s">
+      <c r="I59" s="330" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="320"/>
-      <c r="K59" s="321">
+      <c r="J59" s="331"/>
+      <c r="K59" s="332">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="321"/>
+      <c r="L59" s="332"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17002,6 +17011,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17011,18 +17032,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18390,8 +18399,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18414,23 +18423,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18440,21 +18449,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18469,14 +18478,14 @@
       <c r="D4" s="18">
         <v>44773</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18486,11 +18495,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -20017,11 +20026,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="324">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>2375259</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>61117</v>
       </c>
@@ -20051,8 +20060,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -20267,29 +20276,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="328" t="s">
+      <c r="H53" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="329"/>
+      <c r="I53" s="340"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="330">
+      <c r="K53" s="341">
         <f>I51+L51</f>
         <v>52857.25</v>
       </c>
-      <c r="L53" s="331"/>
-      <c r="M53" s="332">
+      <c r="L53" s="342"/>
+      <c r="M53" s="343">
         <f>N40+M40</f>
         <v>2436376</v>
       </c>
-      <c r="N53" s="333"/>
+      <c r="N53" s="344"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="334" t="s">
+      <c r="D54" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="334"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2370653.75</v>
@@ -20300,22 +20309,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="335" t="s">
+      <c r="D55" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="335"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="115">
         <v>-2401197.5699999998</v>
       </c>
-      <c r="I55" s="336" t="s">
+      <c r="I55" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="337"/>
-      <c r="K55" s="338">
+      <c r="J55" s="348"/>
+      <c r="K55" s="349">
         <f>F57+F58+F59</f>
         <v>259241.77000000016</v>
       </c>
-      <c r="L55" s="339"/>
+      <c r="L55" s="350"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -20346,11 +20355,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="340">
+      <c r="K57" s="351">
         <f>-C4</f>
         <v>-273736.42</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -20367,22 +20376,22 @@
       <c r="C59" s="133">
         <v>44801</v>
       </c>
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="318"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="134">
         <v>236400.59</v>
       </c>
-      <c r="I59" s="319" t="s">
+      <c r="I59" s="354" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="320"/>
-      <c r="K59" s="321">
+      <c r="J59" s="355"/>
+      <c r="K59" s="356">
         <f>K55+K57</f>
         <v>-14494.64999999982</v>
       </c>
-      <c r="L59" s="321"/>
+      <c r="L59" s="356"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -20526,6 +20535,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20535,18 +20556,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -23738,23 +23747,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -23764,21 +23773,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -23793,14 +23802,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -23810,11 +23819,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -25302,7 +25311,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -25328,8 +25337,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -25544,29 +25553,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="328" t="s">
+      <c r="H53" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="329"/>
+      <c r="I53" s="340"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="330">
+      <c r="K53" s="341">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="331"/>
-      <c r="M53" s="332">
+      <c r="L53" s="342"/>
+      <c r="M53" s="343">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="333"/>
+      <c r="N53" s="344"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="334" t="s">
+      <c r="D54" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="334"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -25577,22 +25586,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="335" t="s">
+      <c r="D55" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="335"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="336" t="s">
+      <c r="I55" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="337"/>
-      <c r="K55" s="338">
+      <c r="J55" s="348"/>
+      <c r="K55" s="349">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="339"/>
+      <c r="L55" s="350"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -25623,11 +25632,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="340">
+      <c r="K57" s="351">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -25644,22 +25653,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="318"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="319" t="s">
+      <c r="I59" s="330" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="320"/>
-      <c r="K59" s="321">
+      <c r="J59" s="331"/>
+      <c r="K59" s="332">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="321"/>
+      <c r="L59" s="332"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -25803,18 +25812,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25824,6 +25821,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27128,23 +27137,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -27154,21 +27163,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -27183,14 +27192,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -27200,11 +27209,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -28702,11 +28711,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="324">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -28732,8 +28741,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -28876,29 +28885,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="328" t="s">
+      <c r="H49" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="329"/>
+      <c r="I49" s="340"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="330">
+      <c r="K49" s="341">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="331"/>
-      <c r="M49" s="332">
+      <c r="L49" s="342"/>
+      <c r="M49" s="343">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="333"/>
+      <c r="N49" s="344"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="334" t="s">
+      <c r="D50" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="334"/>
+      <c r="E50" s="345"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -28909,22 +28918,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="335" t="s">
+      <c r="D51" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="335"/>
+      <c r="E51" s="346"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="336" t="s">
+      <c r="I51" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="337"/>
-      <c r="K51" s="338">
+      <c r="J51" s="348"/>
+      <c r="K51" s="349">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="339"/>
+      <c r="L51" s="350"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -28955,11 +28964,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="340">
+      <c r="K53" s="351">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="341"/>
+      <c r="L53" s="352"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -28976,22 +28985,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="317" t="s">
+      <c r="D55" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="318"/>
+      <c r="E55" s="329"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="319" t="s">
+      <c r="I55" s="330" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="320"/>
-      <c r="K55" s="321">
+      <c r="J55" s="331"/>
+      <c r="K55" s="332">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="321"/>
+      <c r="L55" s="332"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -29138,6 +29147,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -29147,18 +29168,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30633,23 +30642,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30659,21 +30668,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -30688,14 +30697,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -30705,11 +30714,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -32353,11 +32362,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="324">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -32389,8 +32398,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -32625,29 +32634,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="328" t="s">
+      <c r="H53" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="329"/>
+      <c r="I53" s="340"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="330">
+      <c r="K53" s="341">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="331"/>
-      <c r="M53" s="332">
+      <c r="L53" s="342"/>
+      <c r="M53" s="343">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="333"/>
+      <c r="N53" s="344"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="334" t="s">
+      <c r="D54" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="334"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -32658,22 +32667,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="335" t="s">
+      <c r="D55" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="335"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="336" t="s">
+      <c r="I55" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="337"/>
-      <c r="K55" s="338">
+      <c r="J55" s="348"/>
+      <c r="K55" s="349">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="339"/>
+      <c r="L55" s="350"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -32704,11 +32713,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="340">
+      <c r="K57" s="351">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -32725,22 +32734,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="318"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="319" t="s">
+      <c r="I59" s="330" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="320"/>
-      <c r="K59" s="321">
+      <c r="J59" s="331"/>
+      <c r="K59" s="332">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="321"/>
+      <c r="L59" s="332"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -32887,6 +32896,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32896,18 +32917,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -34411,23 +34420,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="315"/>
+      <c r="C1" s="317" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="316"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -34437,21 +34446,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="320"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="321"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="326" t="s">
         <v>38</v>
       </c>
     </row>
@@ -34466,14 +34475,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="350"/>
-      <c r="H4" s="351" t="s">
+      <c r="F4" s="323"/>
+      <c r="H4" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="352"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -34483,11 +34492,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="322" t="s">
+      <c r="P4" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="316"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="327"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -36051,11 +36060,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="324">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="326">
+      <c r="N40" s="337">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -36081,8 +36090,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="325"/>
-      <c r="N41" s="327"/>
+      <c r="M41" s="336"/>
+      <c r="N41" s="338"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -36297,29 +36306,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="328" t="s">
+      <c r="H53" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="329"/>
+      <c r="I53" s="340"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="330">
+      <c r="K53" s="341">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="331"/>
-      <c r="M53" s="332">
+      <c r="L53" s="342"/>
+      <c r="M53" s="343">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="333"/>
+      <c r="N53" s="344"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="334" t="s">
+      <c r="D54" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="334"/>
+      <c r="E54" s="345"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -36330,22 +36339,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="335" t="s">
+      <c r="D55" s="346" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="335"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="336" t="s">
+      <c r="I55" s="347" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="337"/>
-      <c r="K55" s="338">
+      <c r="J55" s="348"/>
+      <c r="K55" s="349">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="339"/>
+      <c r="L55" s="350"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -36376,11 +36385,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="340">
+      <c r="K57" s="351">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="352"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -36397,22 +36406,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="317" t="s">
+      <c r="D59" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="318"/>
+      <c r="E59" s="329"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="319" t="s">
+      <c r="I59" s="330" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="320"/>
-      <c r="K59" s="321">
+      <c r="J59" s="331"/>
+      <c r="K59" s="332">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="321"/>
+      <c r="L59" s="332"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -36559,18 +36568,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36580,6 +36577,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
